--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="669">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T15:42:29+00:00</t>
+    <t>2022-01-07T08:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -449,7 +449,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>be-ext-inform-party</t>
+    <t>informParty</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
@@ -461,6 +461,35 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>coprescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+</t>
+  </si>
+  <si>
+    <t>Other parties that have to take part in the prescription.</t>
+  </si>
+  <si>
+    <t>Other practitioners that must take part in this prescripiton</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {resource-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Validity period of the prescription</t>
+  </si>
+  <si>
+    <t>The period during which the resource content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -2395,7 +2424,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2405,7 +2434,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3472,7 +3501,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>131</v>
       </c>
@@ -3490,7 +3519,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
@@ -3586,13 +3615,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3602,16 +3633,16 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>145</v>
@@ -3619,12 +3650,8 @@
       <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3672,7 +3699,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3681,7 +3708,7 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>138</v>
@@ -3693,7 +3720,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3702,11 +3729,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3715,7 +3744,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>88</v>
@@ -3727,16 +3756,16 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3774,17 +3803,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AB12" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3793,66 +3824,66 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3900,7 +3931,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3912,27 +3943,27 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3943,10 +3974,10 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3955,15 +3986,17 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -4000,62 +4033,62 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -4067,16 +4100,16 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -4114,19 +4147,19 @@
         <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4138,27 +4171,27 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4175,26 +4208,22 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
-      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -4218,13 +4247,13 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -4242,7 +4271,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4254,7 +4283,7 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
@@ -4263,29 +4292,29 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
@@ -4294,23 +4323,21 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4334,43 +4361,43 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4379,18 +4406,18 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4398,7 +4425,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
@@ -4407,38 +4434,38 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>79</v>
@@ -4450,13 +4477,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4474,7 +4501,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4495,18 +4522,18 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>203</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4514,7 +4541,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>87</v>
@@ -4529,18 +4556,20 @@
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4552,7 +4581,7 @@
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4564,13 +4593,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4588,7 +4617,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4609,18 +4638,18 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4628,7 +4657,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>87</v>
@@ -4643,28 +4672,32 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4700,7 +4733,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4721,18 +4754,18 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4740,7 +4773,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4755,16 +4788,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4778,7 +4811,7 @@
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>79</v>
@@ -4814,7 +4847,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4835,18 +4868,18 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4854,32 +4887,30 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4904,13 +4935,13 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
@@ -4928,10 +4959,10 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>87</v>
@@ -4943,24 +4974,24 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4974,25 +5005,25 @@
         <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -5018,13 +5049,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -5042,7 +5073,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5057,24 +5088,24 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5088,7 +5119,7 @@
         <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>88</v>
@@ -5100,13 +5131,13 @@
         <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5132,13 +5163,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -5156,7 +5187,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>87</v>
@@ -5171,16 +5202,16 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5188,7 +5219,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5196,7 +5227,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>87</v>
@@ -5211,16 +5242,16 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5246,11 +5277,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -5268,13 +5301,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -5283,16 +5316,16 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5300,7 +5333,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5308,7 +5341,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
@@ -5317,7 +5350,7 @@
         <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>88</v>
@@ -5326,12 +5359,14 @@
         <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5356,13 +5391,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5380,10 +5415,10 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
@@ -5395,24 +5430,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5420,31 +5455,31 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5470,13 +5505,11 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5494,13 +5527,13 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -5512,13 +5545,13 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5526,7 +5559,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5549,13 +5582,13 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>277</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5582,13 +5615,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5606,7 +5639,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5621,24 +5654,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5646,31 +5679,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5696,13 +5729,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5720,10 +5753,10 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5735,24 +5768,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5760,13 +5793,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5775,17 +5808,15 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5834,10 +5865,10 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -5849,24 +5880,24 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5874,7 +5905,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5886,19 +5917,19 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5924,13 +5955,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5948,10 +5979,10 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>87</v>
@@ -5963,24 +5994,24 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5988,30 +6019,32 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6060,13 +6093,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -6075,24 +6108,24 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>310</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6106,24 +6139,26 @@
         <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6172,7 +6207,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6187,24 +6222,24 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6212,28 +6247,28 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6284,13 +6319,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6299,24 +6334,24 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6330,22 +6365,22 @@
         <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6396,7 +6431,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6411,24 +6446,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6436,7 +6471,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6451,17 +6486,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>184</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6486,13 +6519,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6510,7 +6543,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6525,24 +6558,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6556,7 +6589,7 @@
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6565,13 +6598,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6622,7 +6655,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6637,24 +6670,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6665,28 +6698,28 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6712,13 +6745,13 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6736,13 +6769,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6751,24 +6784,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6779,7 +6812,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6791,17 +6824,15 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6850,13 +6881,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6865,16 +6896,16 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6882,7 +6913,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6902,18 +6933,20 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>373</v>
+        <v>193</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6938,13 +6971,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6962,7 +6995,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6977,24 +7010,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7014,18 +7047,20 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>101</v>
+        <v>375</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7074,7 +7109,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7089,16 +7124,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7216,7 +7251,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>387</v>
       </c>
@@ -7229,10 +7264,10 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -7241,7 +7276,7 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>388</v>
@@ -7250,9 +7285,7 @@
         <v>389</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>390</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7306,7 +7339,7 @@
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7315,13 +7348,13 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7332,7 +7365,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7343,7 +7376,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7352,20 +7385,18 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>184</v>
+        <v>391</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7390,13 +7421,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7414,13 +7445,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7429,13 +7460,13 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7444,9 +7475,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7457,28 +7488,30 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>401</v>
+        <v>160</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7526,13 +7559,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7541,13 +7574,13 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7556,9 +7589,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7569,10 +7602,10 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7581,15 +7614,17 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>407</v>
+        <v>193</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7614,13 +7649,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7638,13 +7673,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7653,13 +7688,13 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7670,7 +7705,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7693,17 +7728,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7752,7 +7785,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7767,13 +7800,13 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7782,9 +7815,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7795,10 +7828,10 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7807,13 +7840,13 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>416</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>164</v>
+        <v>417</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>165</v>
+        <v>418</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7864,28 +7897,28 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>166</v>
+        <v>415</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>167</v>
+        <v>421</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7896,11 +7929,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7919,16 +7952,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>423</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>169</v>
+        <v>424</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>170</v>
+        <v>425</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>147</v>
+        <v>426</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7966,19 +7999,19 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>172</v>
+        <v>422</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7990,16 +8023,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>167</v>
+        <v>428</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8010,43 +8043,39 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8094,19 +8123,19 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>426</v>
+        <v>175</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
@@ -8115,7 +8144,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8126,18 +8155,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8146,21 +8175,21 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>428</v>
+        <v>132</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>429</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8196,31 +8225,31 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>432</v>
+        <v>181</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
@@ -8229,51 +8258,53 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>433</v>
+        <v>176</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>438</v>
+        <v>157</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8322,19 +8353,19 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
@@ -8343,18 +8374,18 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>433</v>
+        <v>130</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8365,7 +8396,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8377,19 +8408,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>184</v>
+        <v>437</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8414,13 +8443,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8438,13 +8467,13 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -8459,18 +8488,18 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8478,13 +8507,13 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8496,13 +8525,15 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8550,7 +8581,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8571,7 +8602,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8582,7 +8613,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8593,7 +8624,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -8605,19 +8636,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>455</v>
+        <v>193</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8642,13 +8673,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8666,13 +8697,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8687,18 +8718,18 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8721,17 +8752,15 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>463</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8756,13 +8785,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8780,7 +8809,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8801,18 +8830,18 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8826,7 +8855,7 @@
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8835,19 +8864,19 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>184</v>
+        <v>464</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8872,13 +8901,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8896,7 +8925,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8917,18 +8946,18 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8951,18 +8980,18 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>184</v>
+        <v>472</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8986,13 +9015,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -9010,7 +9039,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9031,18 +9060,18 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9056,7 +9085,7 @@
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9065,19 +9094,19 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9102,13 +9131,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9126,7 +9155,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9147,18 +9176,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9169,7 +9198,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9181,16 +9210,18 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>502</v>
+        <v>193</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9214,13 +9245,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9238,13 +9269,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -9259,18 +9290,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9290,19 +9321,23 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>164</v>
+        <v>501</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9326,13 +9361,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9350,7 +9385,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>166</v>
+        <v>507</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9362,7 +9397,7 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9371,22 +9406,22 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>167</v>
+        <v>508</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9402,20 +9437,18 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>132</v>
+        <v>511</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>169</v>
+        <v>512</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9452,19 +9485,19 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>172</v>
+        <v>514</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9476,7 +9509,7 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9485,18 +9518,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9516,21 +9549,19 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>510</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>511</v>
+        <v>174</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>512</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9554,13 +9585,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9578,7 +9609,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>515</v>
+        <v>175</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9590,7 +9621,7 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9599,13 +9630,13 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" hidden="true">
@@ -9614,14 +9645,14 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9630,23 +9661,21 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>518</v>
+        <v>132</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>519</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>520</v>
+        <v>179</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9682,31 +9711,31 @@
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>523</v>
+        <v>181</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
@@ -9715,18 +9744,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>499</v>
+        <v>176</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9749,19 +9778,17 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>526</v>
+        <v>193</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9786,13 +9813,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9810,7 +9837,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9831,18 +9858,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9865,19 +9892,19 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9926,7 +9953,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9947,18 +9974,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9981,19 +10008,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10042,7 +10069,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10063,18 +10090,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10100,14 +10127,16 @@
         <v>544</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="N68" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10156,7 +10185,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10183,12 +10212,12 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>551</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10208,19 +10237,23 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="K69" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10268,7 +10301,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10286,10 +10319,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10300,7 +10333,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10320,19 +10353,21 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>553</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>164</v>
+        <v>561</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>165</v>
+        <v>562</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10380,7 +10415,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>166</v>
+        <v>564</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10392,7 +10427,7 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
@@ -10401,7 +10436,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>167</v>
+        <v>559</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10412,18 +10447,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10435,17 +10470,15 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>132</v>
+        <v>566</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>169</v>
+        <v>567</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10494,28 +10527,28 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>172</v>
+        <v>565</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>569</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>167</v>
+        <v>570</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10526,43 +10559,39 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10610,19 +10639,19 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>426</v>
+        <v>175</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
@@ -10631,7 +10660,7 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10642,18 +10671,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10665,16 +10694,16 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>557</v>
+        <v>132</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>566</v>
+        <v>178</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>567</v>
+        <v>179</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>568</v>
+        <v>156</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10724,19 +10753,19 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>565</v>
+        <v>181</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
@@ -10745,7 +10774,7 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>569</v>
+        <v>176</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10756,39 +10785,43 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>164</v>
+        <v>433</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10836,19 +10869,19 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>166</v>
+        <v>435</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
@@ -10857,7 +10890,7 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10868,18 +10901,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
@@ -10891,16 +10924,16 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>132</v>
+        <v>566</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>169</v>
+        <v>575</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>170</v>
+        <v>576</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>147</v>
+        <v>577</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10950,19 +10983,19 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>172</v>
+        <v>574</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>79</v>
@@ -10971,7 +11004,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>167</v>
+        <v>578</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10982,43 +11015,39 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11066,19 +11095,19 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>426</v>
+        <v>175</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11087,7 +11116,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11098,18 +11127,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -11121,15 +11150,17 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>544</v>
+        <v>132</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>574</v>
+        <v>178</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11178,19 +11209,19 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>573</v>
+        <v>181</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11199,7 +11230,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>576</v>
+        <v>176</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11210,39 +11241,43 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>578</v>
+        <v>132</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>579</v>
+        <v>433</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11290,19 +11325,19 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>577</v>
+        <v>435</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11311,7 +11346,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>581</v>
+        <v>130</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11345,7 +11380,7 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>583</v>
@@ -11423,7 +11458,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11434,7 +11469,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11457,20 +11492,16 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>213</v>
+        <v>587</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N80" t="s" s="2">
         <v>589</v>
       </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11518,7 +11549,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11536,10 +11567,10 @@
         <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11550,7 +11581,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11573,17 +11604,15 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="K81" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>596</v>
-      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11632,7 +11661,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11650,21 +11679,21 @@
         <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11687,16 +11716,20 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>544</v>
+        <v>222</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11744,7 +11777,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11762,21 +11795,21 @@
         <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11799,16 +11832,16 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11858,7 +11891,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11876,21 +11909,21 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>79</v>
+        <v>608</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11913,13 +11946,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>220</v>
+        <v>553</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11970,7 +12003,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11988,21 +12021,21 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>79</v>
+        <v>612</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>79</v>
+        <v>614</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12025,15 +12058,17 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12082,7 +12117,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12137,13 +12172,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>89</v>
+        <v>229</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>164</v>
+        <v>622</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>165</v>
+        <v>623</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12194,7 +12229,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>166</v>
+        <v>621</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12206,7 +12241,7 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
@@ -12215,10 +12250,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>167</v>
+        <v>624</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12226,18 +12261,18 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -12249,17 +12284,15 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>132</v>
+        <v>566</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>169</v>
+        <v>626</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12308,28 +12341,28 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>172</v>
+        <v>625</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>79</v>
+        <v>628</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>167</v>
+        <v>629</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12340,43 +12373,39 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>424</v>
+        <v>173</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12424,19 +12453,19 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>426</v>
+        <v>175</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
@@ -12445,7 +12474,7 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12456,18 +12485,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12479,16 +12508,16 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>463</v>
+        <v>132</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>625</v>
+        <v>178</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>626</v>
+        <v>179</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>627</v>
+        <v>156</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12514,13 +12543,13 @@
         <v>79</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>628</v>
+        <v>79</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>629</v>
+        <v>79</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>79</v>
@@ -12538,34 +12567,34 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>624</v>
+        <v>181</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>619</v>
+        <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>630</v>
+        <v>176</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>631</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" hidden="true">
@@ -12574,35 +12603,39 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>633</v>
+        <v>433</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12626,13 +12659,13 @@
         <v>79</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>636</v>
+        <v>79</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>79</v>
@@ -12650,39 +12683,39 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>632</v>
+        <v>435</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>638</v>
+        <v>130</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>639</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12690,7 +12723,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>87</v>
@@ -12705,15 +12738,17 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>641</v>
+        <v>472</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12738,13 +12773,13 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>79</v>
+        <v>637</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>79</v>
+        <v>638</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12762,10 +12797,10 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>87</v>
@@ -12777,35 +12812,35 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>79</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>647</v>
+        <v>79</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12817,17 +12852,15 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>648</v>
+        <v>193</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12852,13 +12885,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>79</v>
+        <v>644</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>79</v>
+        <v>645</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12876,13 +12909,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12894,21 +12927,21 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>79</v>
+        <v>646</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>79</v>
+        <v>648</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12919,7 +12952,7 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -12931,17 +12964,15 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>657</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12990,13 +13021,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -13005,23 +13036,251 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="AK93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL93" t="s" s="2">
+      <c r="L94" t="s" s="2">
         <v>659</v>
       </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN93" t="s" s="2">
+      <c r="M94" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN93">
+  <autoFilter ref="A1:AN95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13031,7 +13290,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:56:15+00:00</t>
+    <t>2022-01-07T09:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T09:52:39+00:00</t>
+    <t>2022-01-14T15:28:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T15:28:45+00:00</t>
+    <t>2022-01-17T09:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T09:35:45+00:00</t>
+    <t>2022-01-17T15:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$96</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3445" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="672">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T15:12:34+00:00</t>
+    <t>2022-01-18T14:53:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -479,17 +479,27 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {resource-effectivePeriod}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
     <t>Validity period of the prescription</t>
   </si>
   <si>
-    <t>The period during which the resource content was or is planned to be effective.</t>
-  </si>
-  <si>
-    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+    <t>Begin and enddate of the validity of the request</t>
+  </si>
+  <si>
+    <t>executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+</t>
+  </si>
+  <si>
+    <t>BeExecutionPeriod</t>
+  </si>
+  <si>
+    <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -2424,7 +2434,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3764,9 +3774,7 @@
       <c r="L12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3845,45 +3853,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="C13" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3931,7 +3937,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3940,7 +3946,7 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>138</v>
@@ -3952,7 +3958,7 @@
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>79</v>
@@ -3963,11 +3969,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3977,27 +3983,29 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
       </c>
@@ -4033,17 +4041,19 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -4055,31 +4065,29 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>79</v>
       </c>
@@ -4088,10 +4096,10 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -4100,16 +4108,16 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -4147,19 +4155,17 @@
         <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4174,26 +4180,28 @@
         <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
       </c>
@@ -4214,15 +4222,17 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -4271,50 +4281,50 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
@@ -4326,17 +4336,15 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -4373,31 +4381,31 @@
         <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4406,7 +4414,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4417,43 +4425,41 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4477,43 +4483,43 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4522,18 +4528,18 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4550,25 +4556,25 @@
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4593,13 +4599,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4617,7 +4623,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4638,18 +4644,18 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4657,7 +4663,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>87</v>
@@ -4672,32 +4678,32 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4709,13 +4715,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4733,7 +4739,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4754,18 +4760,18 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4788,30 +4794,32 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>79</v>
@@ -4847,7 +4855,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4868,18 +4876,18 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4887,7 +4895,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
@@ -4902,15 +4910,17 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4923,7 +4933,7 @@
         <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>79</v>
@@ -4959,7 +4969,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4980,18 +4990,18 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5014,17 +5024,15 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -5073,7 +5081,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5094,18 +5102,18 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5113,31 +5121,31 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -5163,13 +5171,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -5190,7 +5198,7 @@
         <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>87</v>
@@ -5202,24 +5210,24 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5227,7 +5235,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>87</v>
@@ -5236,22 +5244,22 @@
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5277,13 +5285,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -5301,10 +5309,10 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
@@ -5316,24 +5324,24 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5341,31 +5349,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5391,13 +5399,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5415,10 +5423,10 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
@@ -5430,24 +5438,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5461,25 +5469,25 @@
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5505,11 +5513,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5527,13 +5537,13 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
@@ -5542,24 +5552,24 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5567,30 +5577,32 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5615,13 +5627,11 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5639,13 +5649,13 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
@@ -5654,16 +5664,16 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5671,7 +5681,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5688,23 +5698,21 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5729,13 +5737,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5753,7 +5761,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5768,16 +5776,16 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5785,7 +5793,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5802,21 +5810,23 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5865,7 +5875,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5886,7 +5896,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5895,9 +5905,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5905,13 +5915,13 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5920,17 +5930,15 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5955,13 +5963,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5979,10 +5987,10 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>87</v>
@@ -5994,24 +6002,24 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6034,16 +6042,16 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6069,13 +6077,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6093,7 +6101,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>87</v>
@@ -6108,24 +6116,24 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6133,7 +6141,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -6145,19 +6153,19 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6207,10 +6215,10 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -6222,24 +6230,24 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6250,10 +6258,10 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6262,15 +6270,17 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6319,13 +6329,13 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>79</v>
@@ -6334,24 +6344,24 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6362,7 +6372,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6371,16 +6381,16 @@
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6431,13 +6441,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6446,24 +6456,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6471,13 +6481,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6486,13 +6496,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6543,7 +6553,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6558,24 +6568,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6583,7 +6593,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
@@ -6595,16 +6605,16 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6655,7 +6665,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6670,16 +6680,16 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6687,7 +6697,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6707,20 +6717,18 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6745,13 +6753,13 @@
         <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>79</v>
@@ -6769,7 +6777,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6784,24 +6792,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6815,24 +6823,26 @@
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>358</v>
+        <v>196</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6857,13 +6867,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6881,7 +6891,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6896,16 +6906,16 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6913,7 +6923,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6924,7 +6934,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6936,17 +6946,15 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>193</v>
+        <v>361</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6971,13 +6979,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6995,13 +7003,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -7010,24 +7018,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7050,16 +7058,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>375</v>
+        <v>196</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7085,13 +7093,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7109,7 +7117,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7124,24 +7132,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>243</v>
+        <v>373</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7161,18 +7169,20 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7221,7 +7231,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7236,16 +7246,16 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7253,7 +7263,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7276,13 +7286,13 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>101</v>
+        <v>385</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7333,7 +7343,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7348,13 +7358,13 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7388,13 +7398,13 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7460,13 +7470,13 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>394</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7475,9 +7485,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7488,10 +7498,10 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7500,18 +7510,16 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>160</v>
+        <v>394</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>399</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7559,13 +7567,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7574,13 +7582,13 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7589,9 +7597,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7605,27 +7613,27 @@
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7649,13 +7657,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7673,7 +7681,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7688,13 +7696,13 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7705,7 +7713,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7716,7 +7724,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7728,15 +7736,17 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>410</v>
+        <v>196</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7761,13 +7771,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7785,13 +7795,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7800,13 +7810,13 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7815,9 +7825,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7831,7 +7841,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7840,13 +7850,13 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7897,7 +7907,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7912,13 +7922,13 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7927,9 +7937,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7943,7 +7953,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7952,17 +7962,15 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -8011,7 +8019,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8026,13 +8034,13 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8043,7 +8051,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8054,7 +8062,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -8066,15 +8074,17 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>426</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>173</v>
+        <v>427</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8123,28 +8133,28 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>176</v>
+        <v>431</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8155,18 +8165,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8178,17 +8188,15 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8225,31 +8233,31 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
@@ -8258,7 +8266,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8269,11 +8277,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>432</v>
+        <v>156</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8286,26 +8294,24 @@
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>433</v>
+        <v>181</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>434</v>
+        <v>182</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8341,19 +8347,19 @@
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>435</v>
+        <v>184</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8374,7 +8380,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8385,40 +8391,42 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K53" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M53" s="2"/>
+      <c r="M53" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N53" t="s" s="2">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8467,19 +8475,19 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
@@ -8488,18 +8496,18 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>442</v>
+        <v>130</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8507,13 +8515,13 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8522,17 +8530,17 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>440</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8581,7 +8589,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8602,18 +8610,18 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8621,13 +8629,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8636,19 +8644,17 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8673,13 +8679,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8697,13 +8703,13 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
@@ -8718,18 +8724,18 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8740,7 +8746,7 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
@@ -8752,16 +8758,20 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8785,13 +8795,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8809,13 +8819,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8830,18 +8840,18 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8864,20 +8874,16 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="K57" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>468</v>
-      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8925,7 +8931,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8946,18 +8952,18 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8980,18 +8986,20 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9015,13 +9023,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -9039,7 +9047,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9060,18 +9068,18 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9085,7 +9093,7 @@
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9094,20 +9102,18 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>193</v>
+        <v>475</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9131,13 +9137,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9155,7 +9161,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9176,18 +9182,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9201,7 +9207,7 @@
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9210,17 +9216,19 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>487</v>
+      </c>
       <c r="N60" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9245,13 +9253,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9269,7 +9277,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9290,18 +9298,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9324,19 +9332,17 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9361,13 +9367,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9385,7 +9391,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9406,18 +9412,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9428,7 +9434,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9440,16 +9446,20 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>511</v>
+        <v>196</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9473,13 +9483,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9497,13 +9507,13 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -9518,18 +9528,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9540,7 +9550,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9549,16 +9559,16 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>514</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>173</v>
+        <v>515</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>174</v>
+        <v>516</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9609,19 +9619,19 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>175</v>
+        <v>517</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9630,29 +9640,29 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9664,17 +9674,15 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9711,31 +9719,31 @@
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
@@ -9744,7 +9752,7 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9755,18 +9763,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9775,21 +9783,21 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>519</v>
+        <v>181</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9813,43 +9821,43 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>524</v>
+        <v>184</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
@@ -9858,18 +9866,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9892,19 +9900,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>527</v>
+        <v>196</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9929,13 +9935,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9953,7 +9959,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9974,18 +9980,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10008,19 +10014,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10069,7 +10075,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10090,18 +10096,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10124,19 +10130,19 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10185,7 +10191,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10206,18 +10212,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10240,19 +10246,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10301,7 +10307,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10322,18 +10328,18 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10356,17 +10362,19 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>559</v>
+      </c>
       <c r="N70" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10415,7 +10423,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10436,7 +10444,7 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10447,7 +10455,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10467,19 +10475,21 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10527,7 +10537,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10545,10 +10555,10 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10559,7 +10569,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10582,13 +10592,13 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>569</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>173</v>
+        <v>570</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>174</v>
+        <v>571</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10639,7 +10649,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>175</v>
+        <v>568</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10651,16 +10661,16 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>176</v>
+        <v>573</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10671,18 +10681,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10694,17 +10704,15 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10753,19 +10761,19 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
@@ -10774,7 +10782,7 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10785,11 +10793,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>432</v>
+        <v>156</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10802,26 +10810,24 @@
         <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>433</v>
+        <v>181</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>434</v>
+        <v>182</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10869,7 +10875,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>435</v>
+        <v>184</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10890,7 +10896,7 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10901,41 +10907,43 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>566</v>
+        <v>132</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>575</v>
+        <v>436</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>576</v>
+        <v>437</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10983,19 +10991,19 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>574</v>
+        <v>438</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>79</v>
@@ -11004,7 +11012,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>578</v>
+        <v>130</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11015,7 +11023,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11038,15 +11046,17 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>569</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>173</v>
+        <v>578</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11095,7 +11105,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>175</v>
+        <v>577</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11107,7 +11117,7 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11116,7 +11126,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>176</v>
+        <v>581</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11127,18 +11137,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -11150,17 +11160,15 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11209,19 +11217,19 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11230,7 +11238,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11241,11 +11249,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>432</v>
+        <v>156</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11258,26 +11266,24 @@
         <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>433</v>
+        <v>181</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>434</v>
+        <v>182</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11325,7 +11331,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>435</v>
+        <v>184</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11346,7 +11352,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11357,39 +11363,43 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>553</v>
+        <v>132</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>583</v>
+        <v>436</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11437,19 +11447,19 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>582</v>
+        <v>438</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11458,7 +11468,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>585</v>
+        <v>130</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11469,7 +11479,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11492,13 +11502,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11549,7 +11559,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11570,7 +11580,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11581,7 +11591,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11604,13 +11614,13 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11661,7 +11671,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11682,7 +11692,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11716,7 +11726,7 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>222</v>
+        <v>590</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>595</v>
@@ -11724,12 +11734,8 @@
       <c r="L82" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>598</v>
-      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11795,10 +11801,10 @@
         <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11809,7 +11815,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11832,18 +11838,20 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>602</v>
+        <v>225</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11891,7 +11899,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11909,21 +11917,21 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>608</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11946,15 +11954,17 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>553</v>
+        <v>605</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12003,7 +12013,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12021,21 +12031,21 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12058,17 +12068,15 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>618</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12117,7 +12125,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12135,21 +12143,21 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>79</v>
+        <v>617</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12172,15 +12180,17 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>229</v>
+        <v>590</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>620</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>621</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12229,7 +12239,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12247,13 +12257,13 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>79</v>
+        <v>622</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12261,7 +12271,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12284,13 +12294,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>566</v>
+        <v>232</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12341,7 +12351,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12359,13 +12369,13 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>628</v>
+        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12373,7 +12383,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12396,13 +12406,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>569</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>173</v>
+        <v>629</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>174</v>
+        <v>630</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12453,7 +12463,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>175</v>
+        <v>628</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12465,16 +12475,16 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>79</v>
+        <v>631</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12485,18 +12495,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12508,17 +12518,15 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12567,19 +12575,19 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
@@ -12588,7 +12596,7 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12599,11 +12607,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>432</v>
+        <v>156</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12616,26 +12624,24 @@
         <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>433</v>
+        <v>181</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>434</v>
+        <v>182</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12683,7 +12689,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>435</v>
+        <v>184</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12704,7 +12710,7 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12715,41 +12721,43 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>472</v>
+        <v>132</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>634</v>
+        <v>436</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>635</v>
+        <v>437</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12773,13 +12781,13 @@
         <v>79</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>638</v>
+        <v>79</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>79</v>
@@ -12797,39 +12805,39 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>633</v>
+        <v>438</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>628</v>
+        <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>639</v>
+        <v>130</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>640</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12837,7 +12845,7 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>87</v>
@@ -12852,15 +12860,17 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>193</v>
+        <v>475</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>639</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12885,13 +12895,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12909,10 +12919,10 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>87</v>
@@ -12927,21 +12937,21 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12964,13 +12974,13 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>650</v>
+        <v>196</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12997,13 +13007,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>79</v>
+        <v>647</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>79</v>
+        <v>648</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13021,7 +13031,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13036,35 +13046,35 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>653</v>
+        <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>656</v>
+        <v>79</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
@@ -13076,17 +13086,15 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>660</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13135,13 +13143,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13150,13 +13158,13 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>79</v>
+        <v>656</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>79</v>
+        <v>649</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13167,11 +13175,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -13190,16 +13198,16 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -13249,7 +13257,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13264,23 +13272,137 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="AK95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL95" t="s" s="2">
+      <c r="L96" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="AM95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="M96" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN95">
+  <autoFilter ref="A1:AN96">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13290,7 +13412,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:53:37+00:00</t>
+    <t>2022-01-18T14:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:54:46+00:00</t>
+    <t>2022-01-19T12:18:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T12:18:41+00:00</t>
+    <t>2022-01-20T09:35:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T09:35:42+00:00</t>
+    <t>2022-01-25T15:16:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T15:16:25+00:00</t>
+    <t>2022-02-01T15:37:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-01T15:37:33+00:00</t>
+    <t>2022-02-08T09:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:26:27+00:00</t>
+    <t>2022-02-08T09:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:35:25+00:00</t>
+    <t>2022-02-08T09:37:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$97</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="676">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:37:29+00:00</t>
+    <t>2022-02-08T10:01:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -500,6 +500,19 @@
   </si>
   <si>
     <t>Begin and enddate of the execution of the request</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-intended-performer}
+</t>
+  </si>
+  <si>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -2434,7 +2447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN96"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3411,7 +3424,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3967,32 +3980,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>157</v>
@@ -4000,12 +4015,8 @@
       <c r="L14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
       </c>
@@ -4053,7 +4064,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -4062,7 +4073,7 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>138</v>
@@ -4074,7 +4085,7 @@
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -4085,11 +4096,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -4099,27 +4110,29 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
       </c>
@@ -4155,17 +4168,19 @@
         <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AB15" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4177,31 +4192,29 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>79</v>
       </c>
@@ -4210,10 +4223,10 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -4222,16 +4235,16 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4269,19 +4282,17 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4296,26 +4307,28 @@
         <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4336,15 +4349,17 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -4393,50 +4408,50 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -4448,17 +4463,15 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4495,40 +4508,40 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4539,43 +4552,41 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4599,43 +4610,43 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4644,18 +4655,18 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4672,25 +4683,25 @@
         <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4715,13 +4726,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4739,7 +4750,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4760,18 +4771,18 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>205</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4779,7 +4790,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4794,32 +4805,32 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>79</v>
@@ -4831,13 +4842,13 @@
         <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>79</v>
@@ -4855,7 +4866,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4876,18 +4887,18 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4910,30 +4921,32 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>79</v>
@@ -4969,7 +4982,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4990,18 +5003,18 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5009,7 +5022,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>87</v>
@@ -5024,15 +5037,17 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -5045,7 +5060,7 @@
         <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>79</v>
@@ -5081,7 +5096,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5102,18 +5117,18 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5136,17 +5151,15 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5195,7 +5208,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5216,18 +5229,18 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5235,31 +5248,31 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5285,13 +5298,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -5309,10 +5322,10 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
@@ -5324,24 +5337,24 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5349,7 +5362,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
@@ -5358,22 +5371,22 @@
         <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5399,13 +5412,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5423,10 +5436,10 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
@@ -5438,24 +5451,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5463,31 +5476,31 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5513,13 +5526,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5537,10 +5550,10 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>87</v>
@@ -5552,24 +5565,24 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5583,25 +5596,25 @@
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5627,11 +5640,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5649,13 +5664,13 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
@@ -5664,24 +5679,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5689,30 +5704,32 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5737,13 +5754,11 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5761,13 +5776,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5776,16 +5791,16 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5793,7 +5808,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5810,23 +5825,21 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5851,13 +5864,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5875,7 +5888,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5890,16 +5903,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5907,7 +5920,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5924,21 +5937,23 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5987,7 +6002,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -6008,18 +6023,18 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6027,13 +6042,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -6042,17 +6057,15 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6077,13 +6090,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6101,10 +6114,10 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -6116,24 +6129,24 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6156,16 +6169,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6191,13 +6204,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6215,7 +6228,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>87</v>
@@ -6230,24 +6243,24 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6255,7 +6268,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6267,19 +6280,19 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6329,10 +6342,10 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -6344,24 +6357,24 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6372,10 +6385,10 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6384,15 +6397,17 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6441,13 +6456,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6456,24 +6471,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6484,7 +6499,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6493,16 +6508,16 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6553,13 +6568,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6568,24 +6583,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6593,13 +6608,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6608,13 +6623,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6665,7 +6680,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6680,24 +6695,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6705,7 +6720,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>87</v>
@@ -6717,16 +6732,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6777,7 +6792,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6792,16 +6807,16 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6809,7 +6824,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6820,7 +6835,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -6829,20 +6844,18 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6867,13 +6880,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6891,7 +6904,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6906,24 +6919,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6934,27 +6947,29 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>361</v>
+        <v>200</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6979,13 +6994,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -7003,7 +7018,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7018,16 +7033,16 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7035,7 +7050,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7046,7 +7061,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -7058,17 +7073,15 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>196</v>
+        <v>365</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7093,13 +7106,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7117,13 +7130,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -7132,24 +7145,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7172,16 +7185,16 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>378</v>
+        <v>200</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7207,13 +7220,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7231,7 +7244,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7246,24 +7259,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>246</v>
+        <v>377</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7283,18 +7296,20 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7343,7 +7358,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7358,16 +7373,16 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7375,7 +7390,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7398,13 +7413,13 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>101</v>
+        <v>389</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7455,7 +7470,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7470,13 +7485,13 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7487,7 +7502,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7510,7 +7525,7 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>394</v>
+        <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>395</v>
@@ -7567,7 +7582,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7582,24 +7597,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7610,10 +7625,10 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7622,18 +7637,16 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>163</v>
+        <v>398</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7681,13 +7694,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7696,24 +7709,24 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7727,27 +7740,27 @@
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7771,13 +7784,13 @@
         <v>79</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>79</v>
@@ -7795,7 +7808,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7810,13 +7823,13 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7827,7 +7840,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7838,7 +7851,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7850,15 +7863,17 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>413</v>
+        <v>200</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7883,13 +7898,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7907,13 +7922,13 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -7922,24 +7937,24 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7953,7 +7968,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7962,13 +7977,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8019,7 +8034,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8034,24 +8049,24 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8065,7 +8080,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -8074,17 +8089,15 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8133,7 +8146,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8148,13 +8161,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8165,7 +8178,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8176,7 +8189,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8188,15 +8201,17 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>430</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>176</v>
+        <v>431</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8245,28 +8260,28 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>178</v>
+        <v>429</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>179</v>
+        <v>435</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8277,18 +8292,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -8300,17 +8315,15 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8347,40 +8360,40 @@
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8391,11 +8404,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>435</v>
+        <v>160</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8408,26 +8421,24 @@
         <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>436</v>
+        <v>185</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>186</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8463,19 +8474,19 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8496,7 +8507,7 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8507,40 +8518,42 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M54" s="2"/>
+      <c r="M54" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N54" t="s" s="2">
-        <v>443</v>
+        <v>164</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8589,19 +8602,19 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
@@ -8610,18 +8623,18 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>445</v>
+        <v>130</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8629,13 +8642,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8644,17 +8657,17 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>444</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8703,7 +8716,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8724,18 +8737,18 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8743,13 +8756,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8758,19 +8771,17 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8795,13 +8806,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8819,13 +8830,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8840,18 +8851,18 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8862,7 +8873,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8874,16 +8885,20 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8907,13 +8922,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8931,13 +8946,13 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8952,13 +8967,13 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -8986,20 +9001,16 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>471</v>
-      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9047,7 +9058,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9068,18 +9079,18 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9102,18 +9113,20 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K59" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9137,13 +9150,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9161,7 +9174,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9182,18 +9195,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9207,7 +9220,7 @@
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9216,20 +9229,18 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>196</v>
+        <v>479</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9253,13 +9264,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9277,7 +9288,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9298,18 +9309,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9323,7 +9334,7 @@
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9332,17 +9343,19 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9367,13 +9380,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9391,7 +9404,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9412,18 +9425,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9446,19 +9459,17 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9483,13 +9494,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9507,7 +9518,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9528,18 +9539,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9550,7 +9561,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9562,16 +9573,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>514</v>
+        <v>200</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9595,13 +9610,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9619,13 +9634,13 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -9640,18 +9655,18 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9662,7 +9677,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9671,16 +9686,16 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>518</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>176</v>
+        <v>519</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>177</v>
+        <v>520</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9731,19 +9746,19 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>178</v>
+        <v>521</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
@@ -9752,29 +9767,29 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9786,17 +9801,15 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9833,40 +9846,40 @@
         <v>79</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9877,18 +9890,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9897,21 +9910,21 @@
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>522</v>
+        <v>185</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9935,43 +9948,43 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>527</v>
+        <v>188</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -9980,18 +9993,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10014,19 +10027,17 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>530</v>
+        <v>200</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10051,13 +10062,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10075,7 +10086,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10096,18 +10107,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10130,19 +10141,19 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10191,7 +10202,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10212,18 +10223,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10246,19 +10257,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10307,7 +10318,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10328,18 +10339,18 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10362,19 +10373,19 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10423,7 +10434,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10444,18 +10455,18 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10478,17 +10489,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10537,7 +10550,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10558,7 +10571,7 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10569,7 +10582,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10589,19 +10602,21 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10649,7 +10664,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10667,10 +10682,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10681,7 +10696,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10704,13 +10719,13 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>573</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>176</v>
+        <v>574</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>177</v>
+        <v>575</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10761,7 +10776,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>178</v>
+        <v>572</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10773,16 +10788,16 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>179</v>
+        <v>577</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10793,18 +10808,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>79</v>
@@ -10816,17 +10831,15 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10875,19 +10888,19 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
@@ -10896,7 +10909,7 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10907,11 +10920,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>435</v>
+        <v>160</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10924,26 +10937,24 @@
         <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>436</v>
+        <v>185</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>437</v>
+        <v>186</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10991,7 +11002,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11012,7 +11023,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11023,41 +11034,43 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>569</v>
+        <v>132</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>578</v>
+        <v>440</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>579</v>
+        <v>441</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11105,19 +11118,19 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>577</v>
+        <v>442</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11126,7 +11139,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>581</v>
+        <v>130</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11137,7 +11150,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11160,15 +11173,17 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>573</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>176</v>
+        <v>582</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11217,7 +11232,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>178</v>
+        <v>581</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11229,7 +11244,7 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11238,7 +11253,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>179</v>
+        <v>585</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11249,18 +11264,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -11272,17 +11287,15 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11331,19 +11344,19 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11352,7 +11365,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11363,11 +11376,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>435</v>
+        <v>160</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11380,26 +11393,24 @@
         <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>436</v>
+        <v>185</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>437</v>
+        <v>186</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11447,7 +11458,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11468,7 +11479,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11479,39 +11490,43 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>556</v>
+        <v>132</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>586</v>
+        <v>440</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11559,19 +11574,19 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>585</v>
+        <v>442</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
@@ -11580,7 +11595,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>588</v>
+        <v>130</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11614,13 +11629,13 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11692,7 +11707,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11703,7 +11718,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11726,7 +11741,7 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>595</v>
@@ -11783,7 +11798,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11804,7 +11819,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11815,7 +11830,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11838,20 +11853,16 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>225</v>
+        <v>594</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M83" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="N83" t="s" s="2">
-        <v>601</v>
-      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11899,7 +11910,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11917,10 +11928,10 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11931,7 +11942,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11954,18 +11965,20 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="K84" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12013,7 +12026,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12031,21 +12044,21 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>611</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12068,15 +12081,17 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>556</v>
+        <v>609</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12125,7 +12140,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12143,21 +12158,21 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>617</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12180,17 +12195,15 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>621</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12239,7 +12252,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12257,21 +12270,21 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12294,15 +12307,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>232</v>
+        <v>594</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12351,7 +12366,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12369,13 +12384,13 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>79</v>
+        <v>626</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>627</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12406,7 +12421,7 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>569</v>
+        <v>236</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>629</v>
@@ -12481,13 +12496,13 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>632</v>
-      </c>
       <c r="AM88" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12495,7 +12510,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12518,13 +12533,13 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>89</v>
+        <v>573</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>176</v>
+        <v>633</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>177</v>
+        <v>634</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12575,7 +12590,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>178</v>
+        <v>632</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12587,16 +12602,16 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>79</v>
+        <v>635</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>179</v>
+        <v>636</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12607,18 +12622,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12630,17 +12645,15 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12689,19 +12702,19 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
@@ -12710,7 +12723,7 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12721,11 +12734,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>435</v>
+        <v>160</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12738,26 +12751,24 @@
         <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>436</v>
+        <v>185</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>437</v>
+        <v>186</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12805,7 +12816,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12826,7 +12837,7 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12837,41 +12848,43 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>475</v>
+        <v>132</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>637</v>
+        <v>440</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>638</v>
+        <v>441</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12895,13 +12908,13 @@
         <v>79</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>640</v>
+        <v>79</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>641</v>
+        <v>79</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>79</v>
@@ -12919,39 +12932,39 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>636</v>
+        <v>442</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>631</v>
+        <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>642</v>
+        <v>130</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12959,7 +12972,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>87</v>
@@ -12974,15 +12987,17 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>196</v>
+        <v>479</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>642</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13007,13 +13022,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13031,10 +13046,10 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>87</v>
@@ -13049,21 +13064,21 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13086,13 +13101,13 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>653</v>
+        <v>200</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13119,13 +13134,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13143,7 +13158,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13158,35 +13173,35 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>656</v>
+        <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>79</v>
+        <v>655</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>659</v>
+        <v>79</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>79</v>
@@ -13198,17 +13213,15 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>663</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13257,13 +13270,13 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -13272,13 +13285,13 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>79</v>
+        <v>660</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>79</v>
+        <v>653</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13289,11 +13302,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>79</v>
+        <v>663</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13312,16 +13325,16 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>669</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13371,7 +13384,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13386,23 +13399,137 @@
         <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="AK96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL96" t="s" s="2">
+      <c r="K97" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="AM96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN96" t="s" s="2">
+      <c r="L97" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN96">
+  <autoFilter ref="A1:AN97">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13412,7 +13539,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI95">
+  <conditionalFormatting sqref="A2:AI96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:01:45+00:00</t>
+    <t>2022-02-08T10:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:08:35+00:00</t>
+    <t>2022-02-08T13:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T13:47:48+00:00</t>
+    <t>2022-02-08T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T14:21:10+00:00</t>
+    <t>2022-02-10T10:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:05:03+00:00</t>
+    <t>2022-02-10T10:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:07:35+00:00</t>
+    <t>2022-02-10T10:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:17:28+00:00</t>
+    <t>2022-02-10T10:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:18:13+00:00</t>
+    <t>2022-02-10T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:14:34+00:00</t>
+    <t>2022-02-10T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:16:39+00:00</t>
+    <t>2022-02-14T08:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:27:15+00:00</t>
+    <t>2022-02-14T08:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:33:39+00:00</t>
+    <t>2022-02-14T09:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5580,7 +5580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>262</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>88</v>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:12:03+00:00</t>
+    <t>2022-02-14T09:13:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$98</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="680">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:13:01+00:00</t>
+    <t>2022-02-14T10:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -513,6 +513,19 @@
   </si>
   <si>
     <t>Intended performers for this request</t>
+  </si>
+  <si>
+    <t>proposalType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-proposal-type}
+</t>
+  </si>
+  <si>
+    <t>BeProposalType</t>
+  </si>
+  <si>
+    <t>Type of proposal</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -2447,7 +2460,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2457,7 +2470,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4094,32 +4107,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>161</v>
@@ -4127,12 +4142,8 @@
       <c r="L15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>164</v>
-      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>79</v>
       </c>
@@ -4180,7 +4191,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4189,7 +4200,7 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>138</v>
@@ -4201,7 +4212,7 @@
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -4212,11 +4223,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4226,27 +4237,29 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -4282,17 +4295,19 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4304,31 +4319,29 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4337,10 +4350,10 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -4349,16 +4362,16 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4396,19 +4409,17 @@
         <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4423,26 +4434,28 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4463,15 +4476,17 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4520,50 +4535,50 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
@@ -4575,17 +4590,15 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4622,40 +4635,40 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4666,43 +4679,41 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4726,43 +4737,43 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4771,18 +4782,18 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4799,25 +4810,25 @@
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4842,13 +4853,13 @@
         <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>79</v>
@@ -4866,7 +4877,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4887,18 +4898,18 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>209</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4906,7 +4917,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
@@ -4921,32 +4932,32 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>79</v>
@@ -4958,13 +4969,13 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
@@ -4982,7 +4993,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -5003,18 +5014,18 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5037,30 +5048,32 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>79</v>
@@ -5096,7 +5109,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5117,18 +5130,18 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5136,7 +5149,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
@@ -5151,15 +5164,17 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5172,7 +5187,7 @@
         <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>79</v>
@@ -5208,7 +5223,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5229,18 +5244,18 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5263,17 +5278,15 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5322,7 +5335,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5343,18 +5356,18 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5362,31 +5375,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5412,13 +5425,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5436,10 +5449,10 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
@@ -5451,24 +5464,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5476,7 +5489,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
@@ -5485,22 +5498,22 @@
         <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5526,13 +5539,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5550,10 +5563,10 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>87</v>
@@ -5565,16 +5578,16 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5582,7 +5595,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5590,7 +5603,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
@@ -5599,22 +5612,22 @@
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5640,13 +5653,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5664,10 +5677,10 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5679,16 +5692,16 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5696,7 +5709,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5713,22 +5726,22 @@
         <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5754,11 +5767,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5776,13 +5791,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5791,24 +5806,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5816,30 +5831,32 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5864,13 +5881,11 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5888,13 +5903,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5903,16 +5918,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5920,7 +5935,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5937,23 +5952,21 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5978,13 +5991,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -6002,7 +6015,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -6017,16 +6030,16 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -6034,7 +6047,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6051,21 +6064,23 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6114,7 +6129,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6135,18 +6150,18 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6154,13 +6169,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -6169,17 +6184,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>301</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6204,13 +6217,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6228,10 +6241,10 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -6243,24 +6256,24 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6283,16 +6296,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6318,13 +6331,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6342,7 +6355,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>87</v>
@@ -6357,24 +6370,24 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6382,7 +6395,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6394,19 +6407,19 @@
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6456,10 +6469,10 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -6471,24 +6484,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6499,10 +6512,10 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6511,15 +6524,17 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6568,13 +6583,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6583,24 +6598,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6611,7 +6626,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6620,16 +6635,16 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6680,13 +6695,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6695,24 +6710,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6720,13 +6735,13 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6735,13 +6750,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6792,7 +6807,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6807,24 +6822,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6832,10 +6847,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -6844,16 +6859,16 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6904,7 +6919,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6919,16 +6934,16 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6936,7 +6951,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6956,20 +6971,18 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>200</v>
+        <v>354</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6994,13 +7007,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -7018,7 +7031,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7033,24 +7046,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7061,27 +7074,29 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>365</v>
+        <v>204</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7106,13 +7121,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7130,7 +7145,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7145,16 +7160,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7162,7 +7177,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7173,7 +7188,7 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -7185,17 +7200,15 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>200</v>
+        <v>369</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7220,13 +7233,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7244,13 +7257,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7259,24 +7272,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7299,16 +7312,16 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>382</v>
+        <v>204</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7334,13 +7347,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7358,7 +7371,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7373,24 +7386,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>250</v>
+        <v>381</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7410,18 +7423,20 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7470,7 +7485,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7485,16 +7500,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7502,7 +7517,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7525,13 +7540,13 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>393</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7582,7 +7597,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7597,13 +7612,13 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7614,7 +7629,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7637,7 +7652,7 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>398</v>
+        <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>399</v>
@@ -7694,7 +7709,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7709,24 +7724,24 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7737,10 +7752,10 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7749,18 +7764,16 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>167</v>
+        <v>402</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>406</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7808,13 +7821,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7823,24 +7836,24 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7854,27 +7867,27 @@
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7898,13 +7911,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7922,7 +7935,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7937,13 +7950,13 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7954,7 +7967,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7965,7 +7978,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7977,15 +7990,17 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>417</v>
+        <v>204</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -8010,13 +8025,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -8034,13 +8049,13 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -8049,24 +8064,24 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8080,7 +8095,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -8089,13 +8104,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8146,7 +8161,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8161,24 +8176,24 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8192,7 +8207,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8201,17 +8216,15 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8260,7 +8273,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8275,13 +8288,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8292,7 +8305,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8303,7 +8316,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -8315,15 +8328,17 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>434</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>180</v>
+        <v>435</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8372,28 +8387,28 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>182</v>
+        <v>433</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>183</v>
+        <v>439</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8404,18 +8419,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8427,17 +8442,15 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8474,40 +8487,40 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8518,11 +8531,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>439</v>
+        <v>164</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8535,26 +8548,24 @@
         <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>440</v>
+        <v>189</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>441</v>
+        <v>190</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8590,19 +8601,19 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>442</v>
+        <v>192</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8623,7 +8634,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8634,40 +8645,42 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M55" s="2"/>
+      <c r="M55" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>447</v>
+        <v>168</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8716,19 +8729,19 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
@@ -8737,18 +8750,18 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>449</v>
+        <v>130</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8756,13 +8769,13 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8771,17 +8784,17 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>448</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8830,7 +8843,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8851,18 +8864,18 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8870,13 +8883,13 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8885,19 +8898,17 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8922,13 +8933,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8946,13 +8957,13 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8967,18 +8978,18 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8989,7 +9000,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -9001,16 +9012,20 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9034,13 +9049,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -9058,13 +9073,13 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
@@ -9079,13 +9094,13 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" hidden="true">
@@ -9113,20 +9128,16 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>475</v>
-      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9174,7 +9185,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9195,18 +9206,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9229,18 +9240,20 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K60" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9264,13 +9277,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9288,7 +9301,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9309,18 +9322,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9334,7 +9347,7 @@
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9343,20 +9356,18 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>200</v>
+        <v>483</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9380,13 +9391,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9404,7 +9415,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9425,18 +9436,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9450,7 +9461,7 @@
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9459,17 +9470,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9494,13 +9507,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9518,7 +9531,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9539,18 +9552,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9573,19 +9586,17 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9610,13 +9621,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9634,7 +9645,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9655,18 +9666,18 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9677,7 +9688,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9689,16 +9700,20 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>518</v>
+        <v>204</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9722,13 +9737,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9746,13 +9761,13 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
@@ -9767,18 +9782,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9789,7 +9804,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9798,16 +9813,16 @@
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>522</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>180</v>
+        <v>523</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>181</v>
+        <v>524</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9858,19 +9873,19 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>182</v>
+        <v>525</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
@@ -9879,29 +9894,29 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9913,17 +9928,15 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9960,40 +9973,40 @@
         <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -10004,18 +10017,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -10024,21 +10037,21 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>526</v>
+        <v>189</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10062,43 +10075,43 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>531</v>
+        <v>192</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
@@ -10107,18 +10120,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10141,19 +10154,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>534</v>
+        <v>204</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10178,13 +10189,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10202,7 +10213,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10223,18 +10234,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10257,19 +10268,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10318,7 +10329,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10339,18 +10350,18 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10373,19 +10384,19 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10434,7 +10445,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10455,18 +10466,18 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10489,19 +10500,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10550,7 +10561,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10571,18 +10582,18 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10605,17 +10616,19 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10664,7 +10677,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10685,7 +10698,7 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10696,7 +10709,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10716,19 +10729,21 @@
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10776,7 +10791,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10794,10 +10809,10 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>576</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10808,7 +10823,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10831,13 +10846,13 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>577</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>180</v>
+        <v>578</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>181</v>
+        <v>579</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10888,7 +10903,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>182</v>
+        <v>576</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10900,16 +10915,16 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>183</v>
+        <v>581</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10920,18 +10935,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
@@ -10943,17 +10958,15 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L75" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11002,19 +11015,19 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>79</v>
@@ -11023,7 +11036,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11034,11 +11047,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>439</v>
+        <v>164</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11051,26 +11064,24 @@
         <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>440</v>
+        <v>189</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>441</v>
+        <v>190</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11118,7 +11129,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>442</v>
+        <v>192</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11139,7 +11150,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11150,41 +11161,43 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>573</v>
+        <v>132</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>582</v>
+        <v>444</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>583</v>
+        <v>445</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11232,19 +11245,19 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>581</v>
+        <v>446</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11253,7 +11266,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>585</v>
+        <v>130</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11264,7 +11277,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11287,15 +11300,17 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>577</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>180</v>
+        <v>586</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11344,7 +11359,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>182</v>
+        <v>585</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11356,7 +11371,7 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11365,7 +11380,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>183</v>
+        <v>589</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11376,18 +11391,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11399,17 +11414,15 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11458,19 +11471,19 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11479,7 +11492,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11490,11 +11503,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>439</v>
+        <v>164</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11507,26 +11520,24 @@
         <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>440</v>
+        <v>189</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>441</v>
+        <v>190</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11574,7 +11585,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>442</v>
+        <v>192</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11595,7 +11606,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11606,39 +11617,43 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>560</v>
+        <v>132</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>590</v>
+        <v>444</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11686,19 +11701,19 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>589</v>
+        <v>446</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
@@ -11707,7 +11722,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>592</v>
+        <v>130</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11741,13 +11756,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11819,7 +11834,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11830,7 +11845,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11853,7 +11868,7 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>599</v>
@@ -11910,7 +11925,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11931,7 +11946,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11942,7 +11957,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11965,20 +11980,16 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>229</v>
+        <v>598</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M84" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="N84" t="s" s="2">
-        <v>605</v>
-      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12026,7 +12037,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12044,10 +12055,10 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>606</v>
+        <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12058,7 +12069,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12081,18 +12092,20 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="K85" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12140,7 +12153,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12158,21 +12171,21 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>615</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12195,15 +12208,17 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>560</v>
+        <v>613</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12252,7 +12267,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12270,21 +12285,21 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>621</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12307,17 +12322,15 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>625</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12366,7 +12379,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12384,21 +12397,21 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>625</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12421,15 +12434,17 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>236</v>
+        <v>598</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12478,7 +12493,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12496,13 +12511,13 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>79</v>
+        <v>630</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>631</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12533,7 +12548,7 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>573</v>
+        <v>240</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>633</v>
@@ -12608,13 +12623,13 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="AL89" t="s" s="2">
-        <v>636</v>
-      </c>
       <c r="AM89" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12622,7 +12637,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12645,13 +12660,13 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>89</v>
+        <v>577</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>180</v>
+        <v>637</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>181</v>
+        <v>638</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12702,7 +12717,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>182</v>
+        <v>636</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12714,16 +12729,16 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>79</v>
+        <v>639</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>183</v>
+        <v>640</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12734,18 +12749,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12757,17 +12772,15 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12816,19 +12829,19 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
@@ -12837,7 +12850,7 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12848,11 +12861,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>439</v>
+        <v>164</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12865,26 +12878,24 @@
         <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>440</v>
+        <v>189</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>441</v>
+        <v>190</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12932,7 +12943,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>442</v>
+        <v>192</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12953,7 +12964,7 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12964,41 +12975,43 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>479</v>
+        <v>132</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>641</v>
+        <v>444</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>642</v>
+        <v>445</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13022,13 +13035,13 @@
         <v>79</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>644</v>
+        <v>79</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>645</v>
+        <v>79</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>79</v>
@@ -13046,39 +13059,39 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>640</v>
+        <v>446</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>646</v>
+        <v>130</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>647</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13086,7 +13099,7 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>87</v>
@@ -13101,15 +13114,17 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>200</v>
+        <v>483</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>646</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>647</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13134,13 +13149,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13158,10 +13173,10 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>87</v>
@@ -13176,21 +13191,21 @@
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13213,13 +13228,13 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>657</v>
+        <v>204</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13246,13 +13261,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>79</v>
+        <v>655</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>79</v>
+        <v>656</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13270,7 +13285,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13285,35 +13300,35 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>660</v>
+        <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>79</v>
+        <v>659</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>663</v>
+        <v>79</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>79</v>
@@ -13325,17 +13340,15 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>667</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13384,13 +13397,13 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>79</v>
@@ -13399,13 +13412,13 @@
         <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>79</v>
+        <v>664</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>79</v>
+        <v>657</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
@@ -13416,11 +13429,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>79</v>
+        <v>667</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13439,16 +13452,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13498,7 +13511,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13513,23 +13526,137 @@
         <v>99</v>
       </c>
       <c r="AJ97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="AK97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL97" t="s" s="2">
+      <c r="K98" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="AM97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN97" t="s" s="2">
+      <c r="L98" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN97">
+  <autoFilter ref="A1:AN98">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13539,7 +13666,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI96">
+  <conditionalFormatting sqref="A2:AI97">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:40:00+00:00</t>
+    <t>2022-02-14T10:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:44:55+00:00</t>
+    <t>2022-02-14T11:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:09+00:00</t>
+    <t>2022-02-14T11:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:42+00:00</t>
+    <t>2022-02-17T07:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:14+00:00</t>
+    <t>2022-02-17T07:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="683">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:49+00:00</t>
+    <t>2022-02-17T10:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -526,6 +526,16 @@
   </si>
   <si>
     <t>Type of proposal</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-task-reference}
+</t>
+  </si>
+  <si>
+    <t>BeTaskReference</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -2460,7 +2470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN98"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4221,45 +4231,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -4307,7 +4315,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4316,7 +4324,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -4328,7 +4336,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4339,11 +4347,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4353,27 +4361,29 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4409,17 +4419,19 @@
         <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4431,31 +4443,29 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4464,10 +4474,10 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -4476,16 +4486,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4523,19 +4533,17 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4550,26 +4558,28 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4590,15 +4600,17 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4647,50 +4659,50 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4702,17 +4714,15 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4749,31 +4759,31 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4782,7 +4792,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4793,43 +4803,41 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4853,43 +4861,43 @@
         <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
@@ -4898,18 +4906,18 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4926,25 +4934,25 @@
         <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4969,13 +4977,13 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
@@ -4993,7 +5001,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -5014,18 +5022,18 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>213</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5033,7 +5041,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>87</v>
@@ -5048,32 +5056,32 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>79</v>
@@ -5085,13 +5093,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -5109,7 +5117,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5130,18 +5138,18 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5164,30 +5172,32 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>79</v>
@@ -5223,7 +5233,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5244,18 +5254,18 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5263,7 +5273,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>87</v>
@@ -5278,15 +5288,17 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5299,7 +5311,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -5335,7 +5347,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5356,18 +5368,18 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5390,17 +5402,15 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5449,7 +5459,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5470,18 +5480,18 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5489,31 +5499,31 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5539,13 +5549,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5566,7 +5576,7 @@
         <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>87</v>
@@ -5578,24 +5588,24 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5603,7 +5613,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
@@ -5612,22 +5622,22 @@
         <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5653,13 +5663,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5677,10 +5687,10 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5692,16 +5702,16 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5709,7 +5719,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5717,7 +5727,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5726,22 +5736,22 @@
         <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5767,13 +5777,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5791,10 +5801,10 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5806,16 +5816,16 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5823,7 +5833,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5840,22 +5850,22 @@
         <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5881,11 +5891,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5903,13 +5915,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5918,24 +5930,24 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5943,30 +5955,32 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5991,13 +6005,11 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -6015,13 +6027,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -6030,16 +6042,16 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -6047,7 +6059,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6064,23 +6076,21 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>291</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6105,13 +6115,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6129,7 +6139,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -6144,16 +6154,16 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6161,7 +6171,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6178,21 +6188,23 @@
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6241,7 +6253,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6262,7 +6274,7 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6271,9 +6283,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6281,13 +6293,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6296,17 +6308,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6331,13 +6341,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6355,10 +6365,10 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -6370,24 +6380,24 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6410,16 +6420,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6445,13 +6455,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6469,7 +6479,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>87</v>
@@ -6484,24 +6494,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6509,7 +6519,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6521,19 +6531,19 @@
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6583,10 +6593,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6598,24 +6608,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6626,10 +6636,10 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6638,15 +6648,17 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6695,13 +6707,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6710,24 +6722,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6738,7 +6750,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6747,16 +6759,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6807,13 +6819,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6822,24 +6834,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6847,13 +6859,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6862,13 +6874,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6919,7 +6931,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6934,24 +6946,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6959,10 +6971,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6971,16 +6983,16 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -7031,7 +7043,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7046,16 +7058,16 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7063,7 +7075,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7083,20 +7095,18 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>204</v>
+        <v>357</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7121,13 +7131,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7145,7 +7155,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7160,24 +7170,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7188,27 +7198,29 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>369</v>
+        <v>207</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7233,13 +7245,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7257,7 +7269,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7272,16 +7284,16 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7289,7 +7301,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7300,7 +7312,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7312,17 +7324,15 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>204</v>
+        <v>372</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7347,13 +7357,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7371,13 +7381,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7386,24 +7396,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7426,16 +7436,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>386</v>
+        <v>207</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7461,13 +7471,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7485,7 +7495,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7500,24 +7510,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>254</v>
+        <v>384</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7537,18 +7547,20 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7597,7 +7609,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7612,16 +7624,16 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7629,7 +7641,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7652,13 +7664,13 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>101</v>
+        <v>396</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7709,7 +7721,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7724,13 +7736,13 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7764,13 +7776,13 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7836,13 +7848,13 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7851,9 +7863,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7864,10 +7876,10 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7876,18 +7888,16 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>171</v>
+        <v>405</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7935,13 +7945,13 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -7950,13 +7960,13 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7965,9 +7975,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7981,27 +7991,27 @@
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8025,13 +8035,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -8049,7 +8059,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8064,13 +8074,13 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8081,7 +8091,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8092,7 +8102,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -8104,15 +8114,17 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>421</v>
+        <v>207</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8137,13 +8149,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -8161,13 +8173,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -8176,13 +8188,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8191,9 +8203,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8207,7 +8219,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8216,13 +8228,13 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8273,7 +8285,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8288,13 +8300,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8303,9 +8315,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8319,7 +8331,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8328,17 +8340,15 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8387,7 +8397,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8402,13 +8412,13 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8419,7 +8429,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8430,7 +8440,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8442,15 +8452,17 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>437</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>184</v>
+        <v>438</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8499,28 +8511,28 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>186</v>
+        <v>436</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8531,18 +8543,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8554,17 +8566,15 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8601,31 +8611,31 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
@@ -8634,7 +8644,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8645,11 +8655,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>443</v>
+        <v>167</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8662,26 +8672,24 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>444</v>
+        <v>192</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>445</v>
+        <v>193</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8717,19 +8725,19 @@
         <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>446</v>
+        <v>195</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8750,7 +8758,7 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8761,40 +8769,42 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="K56" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M56" s="2"/>
+      <c r="M56" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N56" t="s" s="2">
-        <v>451</v>
+        <v>171</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8843,19 +8853,19 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
@@ -8864,18 +8874,18 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>453</v>
+        <v>130</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8883,13 +8893,13 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8898,17 +8908,17 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>451</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8957,7 +8967,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8978,18 +8988,18 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8997,13 +9007,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9012,19 +9022,17 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9049,13 +9057,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -9073,13 +9081,13 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
@@ -9094,18 +9102,18 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9116,7 +9124,7 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -9128,16 +9136,20 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9161,13 +9173,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9185,13 +9197,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -9206,18 +9218,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9240,20 +9252,16 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K60" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>479</v>
-      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9301,7 +9309,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9322,18 +9330,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9356,18 +9364,20 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9391,13 +9401,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9415,7 +9425,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9436,18 +9446,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9461,7 +9471,7 @@
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9470,20 +9480,18 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>204</v>
+        <v>486</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9507,13 +9515,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9531,7 +9539,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9552,18 +9560,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9577,7 +9585,7 @@
         <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9586,17 +9594,19 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="N63" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9621,13 +9631,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9645,7 +9655,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9666,18 +9676,18 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9700,19 +9710,17 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9737,13 +9745,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9761,7 +9769,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9782,18 +9790,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9804,7 +9812,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9816,16 +9824,20 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>522</v>
+        <v>207</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9849,13 +9861,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9873,13 +9885,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9894,18 +9906,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9916,7 +9928,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9925,16 +9937,16 @@
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>525</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>184</v>
+        <v>526</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>185</v>
+        <v>527</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9985,19 +9997,19 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>186</v>
+        <v>528</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
@@ -10006,29 +10018,29 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -10040,17 +10052,15 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10087,31 +10097,31 @@
         <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
@@ -10120,7 +10130,7 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10131,18 +10141,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -10151,21 +10161,21 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>530</v>
+        <v>192</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10189,43 +10199,43 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>535</v>
+        <v>195</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -10234,18 +10244,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10268,19 +10278,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>538</v>
+        <v>207</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10305,13 +10313,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10329,7 +10337,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10350,18 +10358,18 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10384,19 +10392,19 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10445,7 +10453,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10466,18 +10474,18 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10500,19 +10508,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10561,7 +10569,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10582,18 +10590,18 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10616,19 +10624,19 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10677,7 +10685,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10698,18 +10706,18 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10732,17 +10740,19 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10791,7 +10801,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10812,7 +10822,7 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10823,7 +10833,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10843,19 +10853,21 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="K74" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10903,7 +10915,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10921,10 +10933,10 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10935,7 +10947,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10958,13 +10970,13 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>580</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>184</v>
+        <v>581</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>185</v>
+        <v>582</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11015,7 +11027,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>186</v>
+        <v>579</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11027,16 +11039,16 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>187</v>
+        <v>584</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11047,18 +11059,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
@@ -11070,17 +11082,15 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11129,19 +11139,19 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11150,7 +11160,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11161,11 +11171,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>443</v>
+        <v>167</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11178,26 +11188,24 @@
         <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>444</v>
+        <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>445</v>
+        <v>193</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11245,7 +11253,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>446</v>
+        <v>195</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11266,7 +11274,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11277,41 +11285,43 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>577</v>
+        <v>132</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>586</v>
+        <v>447</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>587</v>
+        <v>448</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11359,19 +11369,19 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>585</v>
+        <v>449</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11380,7 +11390,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>589</v>
+        <v>130</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11391,7 +11401,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11414,15 +11424,17 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>89</v>
+        <v>580</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>184</v>
+        <v>589</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11471,7 +11483,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>186</v>
+        <v>588</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11483,7 +11495,7 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11492,7 +11504,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>187</v>
+        <v>592</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11503,18 +11515,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11526,17 +11538,15 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11585,19 +11595,19 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
@@ -11606,7 +11616,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11617,11 +11627,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>443</v>
+        <v>167</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11634,26 +11644,24 @@
         <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>444</v>
+        <v>192</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>445</v>
+        <v>193</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11701,7 +11709,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>446</v>
+        <v>195</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11722,7 +11730,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11733,39 +11741,43 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>564</v>
+        <v>132</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>594</v>
+        <v>447</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11813,19 +11825,19 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>593</v>
+        <v>449</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
@@ -11834,7 +11846,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>596</v>
+        <v>130</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11845,7 +11857,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11868,13 +11880,13 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11925,7 +11937,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11946,7 +11958,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11957,7 +11969,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11980,13 +11992,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12037,7 +12049,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12058,7 +12070,7 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12092,7 +12104,7 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>233</v>
+        <v>601</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>606</v>
@@ -12100,12 +12112,8 @@
       <c r="L85" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="M85" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>609</v>
-      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12171,10 +12179,10 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>610</v>
+        <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12185,7 +12193,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12208,18 +12216,20 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>613</v>
+        <v>236</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>611</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12267,7 +12277,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12285,21 +12295,21 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>619</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12322,15 +12332,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>564</v>
+        <v>616</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>618</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>619</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12379,7 +12391,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12397,21 +12409,21 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12434,17 +12446,15 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12493,7 +12503,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12511,21 +12521,21 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>79</v>
+        <v>628</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12548,15 +12558,17 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>240</v>
+        <v>601</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>632</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12605,7 +12617,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12623,13 +12635,13 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>79</v>
+        <v>633</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12637,7 +12649,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12660,13 +12672,13 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>577</v>
+        <v>243</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12717,7 +12729,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12735,13 +12747,13 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>639</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12749,7 +12761,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12772,13 +12784,13 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>580</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>184</v>
+        <v>640</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>185</v>
+        <v>641</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12829,7 +12841,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>186</v>
+        <v>639</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12841,16 +12853,16 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>187</v>
+        <v>643</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12861,18 +12873,18 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12884,17 +12896,15 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12943,19 +12953,19 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
@@ -12964,7 +12974,7 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12975,11 +12985,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>443</v>
+        <v>167</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12992,26 +13002,24 @@
         <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>444</v>
+        <v>192</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>445</v>
+        <v>193</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13059,7 +13067,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>446</v>
+        <v>195</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13080,7 +13088,7 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13091,41 +13099,43 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>483</v>
+        <v>132</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>645</v>
+        <v>447</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>646</v>
+        <v>448</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13149,13 +13159,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>648</v>
+        <v>79</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>649</v>
+        <v>79</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13173,39 +13183,39 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>644</v>
+        <v>449</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>639</v>
+        <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>650</v>
+        <v>130</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>651</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13213,7 +13223,7 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>87</v>
@@ -13228,15 +13238,17 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>204</v>
+        <v>486</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>649</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>650</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13261,13 +13273,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13285,10 +13297,10 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>87</v>
@@ -13303,21 +13315,21 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13340,13 +13352,13 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>661</v>
+        <v>207</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13373,13 +13385,13 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>79</v>
+        <v>658</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13397,7 +13409,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13412,35 +13424,35 @@
         <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>664</v>
+        <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>79</v>
+        <v>662</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>667</v>
+        <v>79</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13452,17 +13464,15 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13511,13 +13521,13 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
@@ -13526,13 +13536,13 @@
         <v>99</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>79</v>
+        <v>667</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>79</v>
+        <v>660</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
@@ -13543,11 +13553,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>79</v>
+        <v>670</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13566,16 +13576,16 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -13625,7 +13635,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13640,23 +13650,137 @@
         <v>99</v>
       </c>
       <c r="AJ98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="AK98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL98" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="AM98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN98" t="s" s="2">
+      <c r="M99" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN98">
+  <autoFilter ref="A1:AN99">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13666,7 +13790,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI97">
+  <conditionalFormatting sqref="A2:AI98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:28+00:00</t>
+    <t>2022-02-17T10:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:34+00:00</t>
+    <t>2022-02-22T14:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:45:52+00:00</t>
+    <t>2022-02-22T16:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:17:43+00:00</t>
+    <t>2022-02-22T16:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="686">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:23:19+00:00</t>
+    <t>2022-02-23T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -536,6 +536,16 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>extends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-extends}
+</t>
+  </si>
+  <si>
+    <t>BeExtends</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -2470,7 +2480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4345,45 +4355,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4431,7 +4439,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4440,7 +4448,7 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>138</v>
@@ -4452,7 +4460,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4463,11 +4471,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4477,27 +4485,29 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4533,17 +4543,19 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4555,31 +4567,29 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4588,10 +4598,10 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4600,16 +4610,16 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4647,19 +4657,17 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4674,26 +4682,28 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4714,15 +4724,17 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4771,50 +4783,50 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4826,17 +4838,15 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4873,31 +4883,31 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
@@ -4906,7 +4916,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4917,43 +4927,41 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4977,43 +4985,43 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -5022,18 +5030,18 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5050,25 +5058,25 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -5093,13 +5101,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -5117,7 +5125,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5138,18 +5146,18 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>216</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5157,7 +5165,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
@@ -5172,32 +5180,32 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>79</v>
@@ -5209,13 +5217,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -5233,7 +5241,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5254,18 +5262,18 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5288,30 +5296,32 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -5347,7 +5357,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5368,18 +5378,18 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5387,7 +5397,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
@@ -5402,15 +5412,17 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5423,7 +5435,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5459,7 +5471,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5480,18 +5492,18 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5514,17 +5526,15 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5573,7 +5583,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5594,18 +5604,18 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5613,31 +5623,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5663,13 +5673,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5690,7 +5700,7 @@
         <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5702,24 +5712,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5727,7 +5737,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5736,22 +5746,22 @@
         <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5777,13 +5787,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5801,10 +5811,10 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5816,16 +5826,16 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5833,7 +5843,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5841,7 +5851,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
@@ -5850,22 +5860,22 @@
         <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5891,13 +5901,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5915,10 +5925,10 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -5930,16 +5940,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5947,7 +5957,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5964,22 +5974,22 @@
         <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6005,11 +6015,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="X31" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="Y31" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -6027,13 +6039,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -6042,24 +6054,24 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6067,30 +6079,32 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6115,13 +6129,11 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6139,13 +6151,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -6154,16 +6166,16 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6171,7 +6183,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6188,23 +6200,21 @@
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>294</v>
+        <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6229,13 +6239,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6253,7 +6263,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6268,16 +6278,16 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6285,7 +6295,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6302,21 +6312,23 @@
         <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6365,7 +6377,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6386,7 +6398,7 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6395,9 +6407,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6405,13 +6417,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6420,17 +6432,15 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6455,13 +6465,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6479,10 +6489,10 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -6494,24 +6504,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6534,16 +6544,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6569,13 +6579,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6593,7 +6603,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6608,24 +6618,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6633,7 +6643,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
@@ -6645,19 +6655,19 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6707,10 +6717,10 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>87</v>
@@ -6722,24 +6732,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6750,10 +6760,10 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6762,15 +6772,17 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6819,13 +6831,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6834,24 +6846,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6862,7 +6874,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6871,16 +6883,16 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6931,13 +6943,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6946,24 +6958,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6971,13 +6983,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6986,13 +6998,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -7043,7 +7055,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7058,24 +7070,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7083,10 +7095,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -7095,16 +7107,16 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7155,7 +7167,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7170,16 +7182,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7187,7 +7199,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7207,20 +7219,18 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>207</v>
+        <v>360</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7245,13 +7255,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7269,7 +7279,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7284,24 +7294,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7312,27 +7322,29 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>372</v>
+        <v>210</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7357,13 +7369,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7381,7 +7393,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7396,16 +7408,16 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7413,7 +7425,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7424,7 +7436,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7436,17 +7448,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>207</v>
+        <v>375</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7471,13 +7481,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7495,13 +7505,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7510,24 +7520,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7550,16 +7560,16 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7585,13 +7595,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7609,7 +7619,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7624,24 +7634,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>257</v>
+        <v>387</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7661,18 +7671,20 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7721,7 +7733,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7736,16 +7748,16 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7753,7 +7765,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7776,13 +7788,13 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>101</v>
+        <v>399</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7833,7 +7845,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7848,13 +7860,13 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7888,13 +7900,13 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7960,13 +7972,13 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7975,9 +7987,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7988,10 +8000,10 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -8000,18 +8012,16 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>174</v>
+        <v>408</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>413</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8059,13 +8069,13 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -8074,13 +8084,13 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8089,9 +8099,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8105,27 +8115,27 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8149,13 +8159,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -8173,7 +8183,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8188,13 +8198,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8205,7 +8215,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8216,7 +8226,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8228,15 +8238,17 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>424</v>
+        <v>210</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8261,13 +8273,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -8285,13 +8297,13 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
@@ -8300,13 +8312,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8315,9 +8327,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8331,7 +8343,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8340,13 +8352,13 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8397,7 +8409,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8412,13 +8424,13 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8427,9 +8439,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8443,7 +8455,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8452,17 +8464,15 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8511,7 +8521,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8526,13 +8536,13 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8543,7 +8553,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8554,7 +8564,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8566,15 +8576,17 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>440</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>187</v>
+        <v>441</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8623,28 +8635,28 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>189</v>
+        <v>439</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>190</v>
+        <v>445</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8655,18 +8667,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -8678,17 +8690,15 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8725,31 +8735,31 @@
         <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
@@ -8758,7 +8768,7 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8769,11 +8779,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>446</v>
+        <v>170</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8786,26 +8796,24 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>447</v>
+        <v>195</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>448</v>
+        <v>196</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8841,19 +8849,19 @@
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>449</v>
+        <v>198</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8874,7 +8882,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8885,40 +8893,42 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K57" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M57" s="2"/>
+      <c r="M57" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>454</v>
+        <v>174</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8967,19 +8977,19 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8988,18 +8998,18 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>456</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9007,13 +9017,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9022,17 +9032,17 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>454</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9081,7 +9091,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9102,18 +9112,18 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9121,13 +9131,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9136,19 +9146,17 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9173,13 +9181,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9197,13 +9205,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -9218,18 +9226,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9240,7 +9248,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9252,16 +9260,20 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9285,13 +9297,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9309,13 +9321,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -9330,18 +9342,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9364,20 +9376,16 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K61" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>482</v>
-      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9425,7 +9433,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9446,18 +9454,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9480,18 +9488,20 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9515,13 +9525,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9539,7 +9549,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9560,18 +9570,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9585,7 +9595,7 @@
         <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9594,20 +9604,18 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>207</v>
+        <v>489</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9631,13 +9639,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9655,7 +9663,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9676,18 +9684,18 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9701,7 +9709,7 @@
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9710,17 +9718,19 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9745,13 +9755,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9769,7 +9779,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9790,18 +9800,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9824,19 +9834,17 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9861,13 +9869,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9885,7 +9893,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9906,18 +9914,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9928,7 +9936,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9940,16 +9948,20 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>525</v>
+        <v>210</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9973,13 +9985,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9997,13 +10009,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -10018,18 +10030,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10040,7 +10052,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -10049,16 +10061,16 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>528</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>187</v>
+        <v>529</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>188</v>
+        <v>530</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10109,19 +10121,19 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>189</v>
+        <v>531</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
@@ -10130,29 +10142,29 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -10164,17 +10176,15 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10211,31 +10221,31 @@
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -10244,7 +10254,7 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10255,18 +10265,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -10275,21 +10285,21 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>533</v>
+        <v>195</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10313,43 +10323,43 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>538</v>
+        <v>198</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
@@ -10358,18 +10368,18 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10392,19 +10402,17 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>541</v>
+        <v>210</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10429,13 +10437,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10453,7 +10461,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10474,18 +10482,18 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10508,19 +10516,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10569,7 +10577,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10590,18 +10598,18 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10624,19 +10632,19 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10685,7 +10693,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10706,18 +10714,18 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10740,19 +10748,19 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10801,7 +10809,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10822,18 +10830,18 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>79</v>
+        <v>568</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10856,17 +10864,19 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="N74" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10915,7 +10925,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10936,7 +10946,7 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10947,7 +10957,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10967,19 +10977,21 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="K75" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11027,7 +11039,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11045,10 +11057,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11059,7 +11071,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11082,13 +11094,13 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>583</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>187</v>
+        <v>584</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>188</v>
+        <v>585</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11139,7 +11151,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>189</v>
+        <v>582</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11151,16 +11163,16 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>190</v>
+        <v>587</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11171,18 +11183,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -11194,17 +11206,15 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11253,19 +11263,19 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11274,7 +11284,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11285,11 +11295,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>446</v>
+        <v>170</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11302,26 +11312,24 @@
         <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>447</v>
+        <v>195</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>448</v>
+        <v>196</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11369,7 +11377,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>449</v>
+        <v>198</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11390,7 +11398,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11401,41 +11409,43 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>580</v>
+        <v>132</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>589</v>
+        <v>450</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>590</v>
+        <v>451</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11483,19 +11493,19 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>588</v>
+        <v>452</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11504,7 +11514,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>592</v>
+        <v>130</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11515,7 +11525,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11538,15 +11548,17 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>89</v>
+        <v>583</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>187</v>
+        <v>592</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11595,7 +11607,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>189</v>
+        <v>591</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11607,7 +11619,7 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
@@ -11616,7 +11628,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>190</v>
+        <v>595</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11627,18 +11639,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11650,17 +11662,15 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11709,19 +11719,19 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
@@ -11730,7 +11740,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11741,11 +11751,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>446</v>
+        <v>170</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11758,26 +11768,24 @@
         <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>447</v>
+        <v>195</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>448</v>
+        <v>196</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11825,7 +11833,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>449</v>
+        <v>198</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11846,7 +11854,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11857,39 +11865,43 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>567</v>
+        <v>132</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>597</v>
+        <v>450</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11937,19 +11949,19 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>596</v>
+        <v>452</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>79</v>
@@ -11958,7 +11970,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>599</v>
+        <v>130</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11969,7 +11981,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11992,13 +12004,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12049,7 +12061,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12070,7 +12082,7 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12081,7 +12093,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12104,13 +12116,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12161,7 +12173,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12182,7 +12194,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12216,7 +12228,7 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>236</v>
+        <v>604</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>609</v>
@@ -12224,12 +12236,8 @@
       <c r="L86" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>612</v>
-      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12295,10 +12303,10 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>613</v>
+        <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12309,7 +12317,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12332,18 +12340,20 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>616</v>
+        <v>239</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12391,7 +12401,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12409,21 +12419,21 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>622</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12446,15 +12456,17 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>567</v>
+        <v>619</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12503,7 +12515,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12521,21 +12533,21 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12558,17 +12570,15 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>632</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12617,7 +12627,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12635,21 +12645,21 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>79</v>
+        <v>631</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12672,15 +12682,17 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>243</v>
+        <v>604</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>634</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>635</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12729,7 +12741,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12747,13 +12759,13 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>79</v>
+        <v>636</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12761,7 +12773,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12784,13 +12796,13 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>580</v>
+        <v>246</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12841,7 +12853,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12859,13 +12871,13 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12873,7 +12885,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12896,13 +12908,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>583</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>187</v>
+        <v>643</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>188</v>
+        <v>644</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12953,7 +12965,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>189</v>
+        <v>642</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12965,16 +12977,16 @@
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>79</v>
+        <v>645</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>190</v>
+        <v>646</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12985,18 +12997,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -13008,17 +13020,15 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13067,19 +13077,19 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
@@ -13088,7 +13098,7 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13099,11 +13109,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>446</v>
+        <v>170</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13116,26 +13126,24 @@
         <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>447</v>
+        <v>195</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>448</v>
+        <v>196</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13183,7 +13191,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>449</v>
+        <v>198</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13204,7 +13212,7 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13215,41 +13223,43 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>486</v>
+        <v>132</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>648</v>
+        <v>450</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>649</v>
+        <v>451</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13273,13 +13283,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>651</v>
+        <v>79</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13297,39 +13307,39 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>647</v>
+        <v>452</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>653</v>
+        <v>130</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>654</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13337,7 +13347,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>87</v>
@@ -13352,15 +13362,17 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>207</v>
+        <v>489</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="M96" s="2"/>
+        <v>652</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>653</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13385,13 +13397,13 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13409,10 +13421,10 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>87</v>
@@ -13427,21 +13439,21 @@
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13464,13 +13476,13 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>664</v>
+        <v>210</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13497,13 +13509,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>79</v>
+        <v>661</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>79</v>
+        <v>662</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13521,7 +13533,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13536,35 +13548,35 @@
         <v>99</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>667</v>
+        <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>670</v>
+        <v>79</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>79</v>
@@ -13576,17 +13588,15 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>674</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13635,13 +13645,13 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>79</v>
@@ -13650,13 +13660,13 @@
         <v>99</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>79</v>
+        <v>670</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>79</v>
+        <v>663</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
@@ -13667,11 +13677,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>79</v>
+        <v>673</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13690,16 +13700,16 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13749,7 +13759,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13764,23 +13774,137 @@
         <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="AK99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL99" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="AM99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN99" t="s" s="2">
+      <c r="M100" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN99">
+  <autoFilter ref="A1:AN100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13790,7 +13914,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="683">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T09:46:03+00:00</t>
+    <t>2022-02-23T15:29:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -536,16 +536,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>extends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-extends}
-</t>
-  </si>
-  <si>
-    <t>BeExtends</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -2480,7 +2470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4355,43 +4345,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B17" t="s" s="2">
         <v>166</v>
       </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4439,7 +4431,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4448,7 +4440,7 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>138</v>
@@ -4460,7 +4452,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4471,11 +4463,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4485,29 +4477,27 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4543,19 +4533,17 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4567,29 +4555,31 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4598,10 +4588,10 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4610,16 +4600,16 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4657,17 +4647,19 @@
         <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4682,28 +4674,26 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4724,17 +4714,15 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4783,50 +4771,50 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4838,15 +4826,17 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4883,31 +4873,31 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
@@ -4916,7 +4906,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4927,41 +4917,43 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4985,43 +4977,43 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -5030,18 +5022,18 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5058,25 +5050,25 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -5101,13 +5093,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -5125,7 +5117,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5146,18 +5138,18 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5165,7 +5157,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
@@ -5180,32 +5172,32 @@
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>210</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>79</v>
@@ -5217,13 +5209,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -5241,7 +5233,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5262,18 +5254,18 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5296,32 +5288,30 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -5357,7 +5347,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5378,18 +5368,18 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5397,7 +5387,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
@@ -5412,17 +5402,15 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5435,7 +5423,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5471,7 +5459,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5492,18 +5480,18 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5526,15 +5514,17 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5583,7 +5573,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5604,18 +5594,18 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5623,31 +5613,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5673,13 +5663,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5700,7 +5690,7 @@
         <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5712,24 +5702,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5737,7 +5727,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5746,22 +5736,22 @@
         <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5787,13 +5777,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5811,10 +5801,10 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5826,16 +5816,16 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5843,7 +5833,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5851,7 +5841,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
@@ -5860,22 +5850,22 @@
         <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5901,34 +5891,34 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -5940,16 +5930,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5957,7 +5947,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5974,22 +5964,22 @@
         <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6015,13 +6005,11 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -6039,13 +6027,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -6054,24 +6042,24 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6079,32 +6067,30 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6129,35 +6115,37 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="Y32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -6166,16 +6154,16 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6183,7 +6171,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6200,21 +6188,23 @@
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>107</v>
+        <v>294</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6239,13 +6229,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6263,7 +6253,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6278,16 +6268,16 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6295,7 +6285,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6312,23 +6302,21 @@
         <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6377,7 +6365,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6398,7 +6386,7 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6407,9 +6395,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6417,13 +6405,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6432,15 +6420,17 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6465,13 +6455,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6489,10 +6479,10 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -6504,24 +6494,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6544,16 +6534,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6579,13 +6569,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6603,7 +6593,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>87</v>
@@ -6618,24 +6608,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6643,7 +6633,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
@@ -6655,19 +6645,19 @@
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6717,10 +6707,10 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>87</v>
@@ -6732,24 +6722,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>325</v>
+        <v>257</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6760,10 +6750,10 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6772,17 +6762,15 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6831,13 +6819,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6846,24 +6834,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6874,7 +6862,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6883,16 +6871,16 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6943,13 +6931,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6958,24 +6946,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6983,13 +6971,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6998,13 +6986,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -7055,7 +7043,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7070,24 +7058,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7095,10 +7083,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -7107,16 +7095,16 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7167,7 +7155,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7182,16 +7170,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7199,7 +7187,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7219,18 +7207,20 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7255,13 +7245,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7279,7 +7269,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7294,24 +7284,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7322,29 +7312,27 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>210</v>
+        <v>372</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7369,31 +7357,31 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7408,16 +7396,16 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7425,7 +7413,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7436,7 +7424,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7448,15 +7436,17 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7481,13 +7471,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7505,13 +7495,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7520,24 +7510,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7560,16 +7550,16 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>210</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7595,13 +7585,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7619,7 +7609,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7634,24 +7624,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="AN45" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7671,20 +7661,18 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7733,7 +7721,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7748,16 +7736,16 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7765,7 +7753,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7788,13 +7776,13 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>399</v>
+        <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7845,7 +7833,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7860,13 +7848,13 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7900,13 +7888,13 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>405</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7972,13 +7960,13 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7987,9 +7975,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8000,10 +7988,10 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -8012,16 +8000,18 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>408</v>
+        <v>174</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8069,13 +8059,13 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -8084,13 +8074,13 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8099,9 +8089,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8115,27 +8105,27 @@
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8159,13 +8149,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -8183,7 +8173,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8198,13 +8188,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8215,7 +8205,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8226,7 +8216,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -8238,17 +8228,15 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>210</v>
+        <v>424</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8273,37 +8261,37 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
@@ -8312,13 +8300,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8327,9 +8315,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8343,7 +8331,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8352,13 +8340,13 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8409,7 +8397,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8424,13 +8412,13 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8439,9 +8427,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8455,7 +8443,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8464,15 +8452,17 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8521,7 +8511,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8536,13 +8526,13 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8553,7 +8543,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8564,7 +8554,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8576,17 +8566,15 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>440</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>441</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8635,28 +8623,28 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>439</v>
+        <v>189</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>445</v>
+        <v>190</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8667,18 +8655,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -8690,15 +8678,17 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8735,31 +8725,31 @@
         <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
@@ -8768,7 +8758,7 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8779,11 +8769,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>170</v>
+        <v>446</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8796,24 +8786,26 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>195</v>
+        <v>447</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>196</v>
+        <v>448</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8849,19 +8841,19 @@
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>198</v>
+        <v>449</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8882,7 +8874,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8893,42 +8885,40 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>132</v>
+        <v>451</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>174</v>
+        <v>454</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8977,19 +8967,19 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
@@ -8998,18 +8988,18 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>130</v>
+        <v>456</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9017,13 +9007,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9032,17 +9022,17 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>454</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -9091,7 +9081,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9112,18 +9102,18 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9131,13 +9121,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9146,17 +9136,19 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9181,13 +9173,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9205,13 +9197,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -9226,18 +9218,18 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9248,7 +9240,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9260,20 +9252,16 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9297,13 +9285,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9321,13 +9309,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -9342,18 +9330,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9376,16 +9364,20 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>478</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9433,7 +9425,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9454,18 +9446,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9488,20 +9480,18 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9525,13 +9515,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9549,7 +9539,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9570,18 +9560,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9595,7 +9585,7 @@
         <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9604,18 +9594,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>489</v>
+        <v>207</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9639,13 +9631,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9663,7 +9655,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9684,18 +9676,18 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9709,7 +9701,7 @@
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9718,19 +9710,17 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>501</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9755,13 +9745,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9779,7 +9769,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9800,18 +9790,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9834,17 +9824,19 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9869,13 +9861,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9893,7 +9885,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9914,18 +9906,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9936,7 +9928,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9948,20 +9940,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>210</v>
+        <v>525</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9985,13 +9973,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -10009,13 +9997,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -10030,18 +10018,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10052,7 +10040,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -10061,16 +10049,16 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>528</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>529</v>
+        <v>187</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>530</v>
+        <v>188</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10121,19 +10109,19 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>531</v>
+        <v>189</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
@@ -10142,29 +10130,29 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -10176,15 +10164,17 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10221,31 +10211,31 @@
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -10254,7 +10244,7 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10265,18 +10255,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -10285,21 +10275,21 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>195</v>
+        <v>533</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10323,43 +10313,43 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>198</v>
+        <v>538</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
@@ -10368,18 +10358,18 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10402,17 +10392,19 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>210</v>
+        <v>541</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="N70" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10437,13 +10429,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10461,7 +10453,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10482,18 +10474,18 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10516,19 +10508,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10577,7 +10569,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10598,18 +10590,18 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10632,19 +10624,19 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10693,7 +10685,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10714,18 +10706,18 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10748,19 +10740,19 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10809,7 +10801,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10830,18 +10822,18 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>568</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10864,19 +10856,17 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10925,7 +10915,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10946,7 +10936,7 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10957,7 +10947,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10977,21 +10967,19 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>580</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11039,7 +11027,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11057,10 +11045,10 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -11071,7 +11059,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11094,13 +11082,13 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>583</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>584</v>
+        <v>187</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>585</v>
+        <v>188</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11151,7 +11139,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>582</v>
+        <v>189</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11163,16 +11151,16 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>586</v>
+        <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>587</v>
+        <v>190</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11183,18 +11171,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -11206,15 +11194,17 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11263,19 +11253,19 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11284,7 +11274,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11295,11 +11285,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>170</v>
+        <v>446</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11312,24 +11302,26 @@
         <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>195</v>
+        <v>447</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>196</v>
+        <v>448</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11377,7 +11369,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>198</v>
+        <v>449</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11398,7 +11390,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11409,43 +11401,41 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>132</v>
+        <v>580</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>450</v>
+        <v>589</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>451</v>
+        <v>590</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11493,19 +11483,19 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>452</v>
+        <v>588</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11514,7 +11504,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>130</v>
+        <v>592</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11525,7 +11515,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11548,17 +11538,15 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>583</v>
+        <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>592</v>
+        <v>187</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11607,7 +11595,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>591</v>
+        <v>189</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11619,7 +11607,7 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>79</v>
@@ -11628,7 +11616,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>595</v>
+        <v>190</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11639,18 +11627,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -11662,15 +11650,17 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11719,19 +11709,19 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
@@ -11740,7 +11730,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11751,11 +11741,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>170</v>
+        <v>446</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11768,24 +11758,26 @@
         <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>195</v>
+        <v>447</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>196</v>
+        <v>448</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11833,7 +11825,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>198</v>
+        <v>449</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11854,7 +11846,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11865,43 +11857,39 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>132</v>
+        <v>567</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11949,19 +11937,19 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>452</v>
+        <v>596</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>79</v>
@@ -11970,7 +11958,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>130</v>
+        <v>599</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11981,7 +11969,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12004,13 +11992,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>570</v>
+        <v>601</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12061,7 +12049,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12082,7 +12070,7 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12093,7 +12081,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12116,13 +12104,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12173,7 +12161,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12194,7 +12182,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12228,7 +12216,7 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>604</v>
+        <v>236</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>609</v>
@@ -12236,8 +12224,12 @@
       <c r="L86" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+      <c r="M86" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12303,10 +12295,10 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>79</v>
+        <v>613</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12317,7 +12309,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12340,20 +12332,18 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>239</v>
+        <v>616</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12401,7 +12391,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12419,21 +12409,21 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12456,17 +12446,15 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>619</v>
+        <v>567</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>622</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12515,7 +12503,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12533,21 +12521,21 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12570,15 +12558,17 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>570</v>
+        <v>601</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>632</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12627,7 +12617,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12645,21 +12635,21 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>631</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12682,17 +12672,15 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>604</v>
+        <v>243</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12741,7 +12729,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12759,13 +12747,13 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>636</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12773,7 +12761,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12796,13 +12784,13 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>246</v>
+        <v>580</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12853,7 +12841,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12871,13 +12859,13 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12885,7 +12873,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12908,13 +12896,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>583</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>643</v>
+        <v>187</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>644</v>
+        <v>188</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12965,7 +12953,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>642</v>
+        <v>189</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12977,16 +12965,16 @@
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>645</v>
+        <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>646</v>
+        <v>190</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12997,18 +12985,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -13020,15 +13008,17 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13077,19 +13067,19 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
@@ -13098,7 +13088,7 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13109,11 +13099,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>170</v>
+        <v>446</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13126,24 +13116,26 @@
         <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>132</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>195</v>
+        <v>447</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>196</v>
+        <v>448</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13191,7 +13183,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>198</v>
+        <v>449</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13212,7 +13204,7 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
@@ -13223,43 +13215,41 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>132</v>
+        <v>486</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>450</v>
+        <v>648</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>451</v>
+        <v>649</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13283,13 +13273,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13307,39 +13297,39 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>452</v>
+        <v>647</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>130</v>
+        <v>653</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>79</v>
+        <v>654</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13347,7 +13337,7 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>87</v>
@@ -13362,17 +13352,15 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>489</v>
+        <v>207</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>653</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13397,34 +13385,34 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="Y96" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="Z96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="AF96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>87</v>
@@ -13439,21 +13427,21 @@
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13476,13 +13464,13 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>210</v>
+        <v>664</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13509,13 +13497,13 @@
         <v>79</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>661</v>
+        <v>79</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>662</v>
+        <v>79</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>79</v>
@@ -13533,7 +13521,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13548,35 +13536,35 @@
         <v>99</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>79</v>
+        <v>667</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>79</v>
+        <v>670</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>79</v>
@@ -13588,15 +13576,17 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>673</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>674</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13645,13 +13635,13 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>79</v>
@@ -13660,13 +13650,13 @@
         <v>99</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>670</v>
+        <v>79</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>663</v>
+        <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
@@ -13677,11 +13667,11 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>673</v>
+        <v>79</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13700,16 +13690,16 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13759,7 +13749,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -13774,137 +13764,23 @@
         <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>79</v>
+        <v>681</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN100" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN100">
+  <autoFilter ref="A1:AN99">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13914,7 +13790,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:29:02+00:00</t>
+    <t>2022-02-23T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:34:51+00:00</t>
+    <t>2022-03-02T14:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T14:57:26+00:00</t>
+    <t>2022-03-23T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription-nursing-gen-medication</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-nursing-gen-medication</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T15:53:34+00:00</t>
+    <t>2022-05-03T10:04:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -452,7 +452,7 @@
     <t>informParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
 </t>
   </si>
   <si>
@@ -479,7 +479,7 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-validity-period}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>executed</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-execution-period}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-execution-period}
 </t>
   </si>
   <si>
@@ -505,7 +505,7 @@
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-intended-performer}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
@@ -518,7 +518,7 @@
     <t>proposalType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-proposal-type}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-proposal-type}
 </t>
   </si>
   <si>
@@ -531,7 +531,7 @@
     <t>task</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-task-reference}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-task-reference}
 </t>
   </si>
   <si>
@@ -711,7 +711,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/uhmep</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/NamingSystem/uhmep</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -1015,7 +1015,7 @@
     <t>MedicationRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(Group|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient)
 </t>
   </si>
   <si>
@@ -1123,7 +1123,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$103</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="700">
   <si>
     <t>Property</t>
   </si>
@@ -449,14 +449,17 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+    <t>feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
   </si>
   <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -466,7 +469,7 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
 </t>
   </si>
   <si>
@@ -502,17 +505,56 @@
     <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+</t>
+  </si>
+  <si>
+    <t>BeLatestEndDate</t>
+  </si>
+  <si>
+    <t>Request must be performed before</t>
+  </si>
+  <si>
+    <t>latestDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+</t>
+  </si>
+  <si>
+    <t>BeLatestDraftDate</t>
+  </si>
+  <si>
+    <t>Request must leave draft status before</t>
+  </si>
+  <si>
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-reference}
 </t>
   </si>
   <si>
     <t>Takes the place of performer and performerType</t>
   </si>
   <si>
-    <t>Intended performers for this request</t>
+    <t>Takes the place of the performer field in ServiceRequest</t>
+  </si>
+  <si>
+    <t>performertasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
+</t>
+  </si>
+  <si>
+    <t>BePerformerTaskReference</t>
+  </si>
+  <si>
+    <t>List of references to the tasks performed by each performer</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -536,6 +578,19 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
+</t>
+  </si>
+  <si>
+    <t>BePSSInfo</t>
+  </si>
+  <si>
+    <t>Prescription Search Support Info</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -2470,7 +2525,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2480,7 +2535,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.08984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3562,7 +3617,7 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>88</v>
@@ -3580,7 +3635,7 @@
         <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3640,7 +3695,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>138</v>
@@ -3652,7 +3707,7 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3666,7 +3721,7 @@
         <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>79</v>
@@ -3676,7 +3731,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -3688,13 +3743,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3754,7 +3809,7 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>138</v>
@@ -3780,14 +3835,14 @@
         <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>87</v>
@@ -3802,13 +3857,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3868,7 +3923,7 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>138</v>
@@ -3894,7 +3949,7 @@
         <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>79</v>
@@ -3916,13 +3971,13 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3982,7 +4037,7 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>138</v>
@@ -4008,14 +4063,14 @@
         <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>87</v>
@@ -4030,13 +4085,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4096,7 +4151,7 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>138</v>
@@ -4122,7 +4177,7 @@
         <v>131</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -4144,13 +4199,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4210,7 +4265,7 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>138</v>
@@ -4236,7 +4291,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4246,7 +4301,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -4258,13 +4313,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4324,7 +4379,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -4345,13 +4400,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="C17" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4361,29 +4418,25 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N17" t="s" s="2">
         <v>171</v>
       </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4431,7 +4484,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4440,7 +4493,7 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>138</v>
@@ -4452,7 +4505,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4461,11 +4514,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4474,7 +4529,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -4486,17 +4541,15 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>177</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4533,17 +4586,19 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4552,33 +4607,33 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4591,7 +4646,7 @@
         <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4600,17 +4655,15 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4659,7 +4712,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4668,32 +4721,34 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4705,7 +4760,7 @@
         <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4714,13 +4769,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4771,19 +4826,19 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4792,7 +4847,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4803,11 +4858,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4820,7 +4875,7 @@
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
@@ -4829,15 +4884,17 @@
         <v>132</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4873,19 +4930,19 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4906,7 +4963,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4917,7 +4974,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4928,32 +4985,30 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4977,37 +5032,35 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -5016,26 +5069,28 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>130</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
       </c>
@@ -5053,23 +5108,21 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -5093,13 +5146,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -5117,13 +5170,13 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -5132,24 +5185,24 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5157,7 +5210,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
@@ -5169,35 +5222,31 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>79</v>
@@ -5233,7 +5282,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5245,7 +5294,7 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
@@ -5254,29 +5303,29 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -5285,19 +5334,19 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5311,7 +5360,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -5335,31 +5384,31 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>79</v>
@@ -5368,18 +5417,18 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5396,22 +5445,26 @@
         <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5435,13 +5488,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5459,7 +5512,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5480,18 +5533,18 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5514,18 +5567,20 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5549,13 +5604,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5573,7 +5628,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5594,18 +5649,18 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5619,39 +5674,41 @@
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5663,13 +5720,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5687,10 +5744,10 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5702,24 +5759,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5727,31 +5784,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5765,7 +5822,7 @@
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -5777,13 +5834,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5801,7 +5858,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5816,24 +5873,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5841,32 +5898,30 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5891,13 +5946,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5915,10 +5970,10 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -5930,24 +5985,24 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5955,31 +6010,31 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6005,35 +6060,37 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="X31" s="2"/>
-      <c r="Y31" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -6045,21 +6102,21 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6067,16 +6124,16 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
@@ -6085,12 +6142,14 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6115,13 +6174,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6139,10 +6198,10 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -6154,24 +6213,24 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6185,25 +6244,25 @@
         <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6229,13 +6288,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6253,7 +6312,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6268,13 +6327,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6283,9 +6342,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6293,30 +6352,32 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6341,13 +6402,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6365,10 +6426,10 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -6380,16 +6441,16 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6397,7 +6458,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6417,19 +6478,19 @@
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6455,13 +6516,11 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6479,13 +6538,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6494,24 +6553,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6519,13 +6578,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6534,17 +6593,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>317</v>
+        <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6569,13 +6626,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6593,10 +6650,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6608,24 +6665,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6639,25 +6696,25 @@
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6707,7 +6764,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6722,24 +6779,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6750,7 +6807,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6759,16 +6816,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6819,13 +6876,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6834,24 +6891,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6859,13 +6916,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6874,15 +6931,17 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6907,13 +6966,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6931,10 +6990,10 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>87</v>
@@ -6946,24 +7005,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6986,15 +7045,17 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -7043,10 +7104,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -7058,24 +7119,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7086,7 +7147,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -7098,15 +7159,17 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7155,7 +7218,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7170,24 +7233,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7198,29 +7261,27 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7245,13 +7306,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7269,13 +7330,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7284,16 +7345,16 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7301,7 +7362,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7321,16 +7382,16 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7381,7 +7442,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7396,24 +7457,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7421,32 +7482,30 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>207</v>
+        <v>368</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7471,13 +7530,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7495,13 +7554,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7510,24 +7569,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7538,10 +7597,10 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7550,17 +7609,15 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7609,13 +7666,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7624,24 +7681,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7652,10 +7709,10 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7664,15 +7721,17 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>396</v>
+        <v>224</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7697,13 +7756,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7721,13 +7780,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7736,13 +7795,13 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7751,9 +7810,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7764,25 +7823,25 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>101</v>
+        <v>389</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7833,13 +7892,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7854,10 +7913,10 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7865,7 +7924,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7885,18 +7944,20 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>405</v>
+        <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7921,13 +7982,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7945,7 +8006,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7960,24 +8021,24 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7988,30 +8049,30 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>174</v>
+        <v>406</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8059,13 +8120,13 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -8074,16 +8135,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8091,7 +8152,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8102,7 +8163,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -8111,20 +8172,18 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>207</v>
+        <v>413</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8149,13 +8208,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -8173,13 +8232,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -8188,13 +8247,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8205,7 +8264,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8225,16 +8284,16 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>424</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8285,7 +8344,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8300,13 +8359,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8315,9 +8374,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8331,22 +8390,22 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8397,7 +8456,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8412,13 +8471,13 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8427,9 +8486,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8440,30 +8499,30 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>437</v>
+        <v>191</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8511,13 +8570,13 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -8526,13 +8585,13 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8543,7 +8602,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8566,15 +8625,17 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>187</v>
+        <v>434</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8599,13 +8660,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8623,7 +8684,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>189</v>
+        <v>433</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8635,7 +8696,7 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
@@ -8644,7 +8705,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>190</v>
+        <v>439</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8655,11 +8716,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8678,17 +8739,15 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>441</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>192</v>
+        <v>442</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8725,19 +8784,19 @@
         <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>195</v>
+        <v>440</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8749,16 +8808,16 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>190</v>
+        <v>445</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8767,13 +8826,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8783,29 +8842,25 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>132</v>
+        <v>447</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8853,7 +8908,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8865,16 +8920,16 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>130</v>
+        <v>452</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8885,7 +8940,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8896,7 +8951,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8905,21 +8960,21 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8967,13 +9022,13 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8982,24 +9037,24 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9007,33 +9062,31 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>459</v>
+        <v>204</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>460</v>
+        <v>205</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>461</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9081,7 +9134,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>462</v>
+        <v>206</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9093,7 +9146,7 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -9102,22 +9155,22 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>456</v>
+        <v>207</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9133,23 +9186,21 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>465</v>
+        <v>209</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>466</v>
+        <v>210</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9173,31 +9224,31 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>471</v>
+        <v>212</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9209,7 +9260,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9218,50 +9269,54 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>456</v>
+        <v>207</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9309,19 +9364,19 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9330,18 +9385,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>456</v>
+        <v>130</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9364,19 +9419,17 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9425,7 +9478,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9446,18 +9499,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9465,13 +9518,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9480,18 +9533,18 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>486</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9515,13 +9568,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9539,7 +9592,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9560,18 +9613,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9582,10 +9635,10 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9594,19 +9647,19 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9631,13 +9684,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9655,13 +9708,13 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -9676,18 +9729,18 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9710,18 +9763,16 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>508</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9745,13 +9796,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9769,7 +9820,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9790,18 +9841,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>513</v>
+        <v>489</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9824,19 +9875,19 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>207</v>
+        <v>495</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9861,13 +9912,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9885,7 +9936,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9906,18 +9957,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9928,7 +9979,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9940,15 +9991,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9973,13 +10026,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9997,13 +10050,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -10018,18 +10071,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10043,25 +10096,29 @@
         <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>187</v>
+        <v>513</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10085,13 +10142,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10109,7 +10166,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>189</v>
+        <v>519</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10121,7 +10178,7 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
@@ -10130,29 +10187,29 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>190</v>
+        <v>520</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -10161,21 +10218,21 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>192</v>
+        <v>523</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10199,43 +10256,43 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>195</v>
+        <v>528</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -10244,18 +10301,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>190</v>
+        <v>529</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10278,15 +10335,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
         <v>535</v>
       </c>
@@ -10313,7 +10372,7 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="X69" t="s" s="2">
         <v>536</v>
@@ -10358,18 +10417,18 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10380,7 +10439,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -10392,20 +10451,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M70" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>545</v>
-      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10453,13 +10508,13 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -10474,18 +10529,18 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10505,23 +10560,19 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>549</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>550</v>
+        <v>204</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10569,7 +10620,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>554</v>
+        <v>206</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10581,7 +10632,7 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
@@ -10590,29 +10641,29 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>555</v>
+        <v>207</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10621,23 +10672,21 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>558</v>
+        <v>132</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>559</v>
+        <v>209</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10673,31 +10722,31 @@
         <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>563</v>
+        <v>212</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
@@ -10706,18 +10755,18 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>564</v>
+        <v>207</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>565</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10740,19 +10789,17 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>567</v>
+        <v>224</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10777,13 +10824,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10801,7 +10848,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10822,18 +10869,18 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>573</v>
+        <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10856,17 +10903,19 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="N74" t="s" s="2">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10915,7 +10964,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10936,18 +10985,18 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10967,19 +11016,23 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11027,7 +11080,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11045,21 +11098,21 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>79</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11079,19 +11132,23 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>575</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>187</v>
+        <v>576</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11139,7 +11196,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>189</v>
+        <v>580</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11151,7 +11208,7 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11160,29 +11217,29 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>190</v>
+        <v>581</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -11191,21 +11248,23 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>132</v>
+        <v>584</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>192</v>
+        <v>585</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>193</v>
+        <v>586</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11253,19 +11312,19 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>195</v>
+        <v>589</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11274,7 +11333,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>190</v>
+        <v>590</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11285,42 +11344,40 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>132</v>
+        <v>584</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>447</v>
+        <v>592</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>171</v>
+        <v>594</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11369,19 +11426,19 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>449</v>
+        <v>595</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11390,7 +11447,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>130</v>
+        <v>590</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11401,7 +11458,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11424,17 +11481,15 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11483,7 +11538,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11501,10 +11556,10 @@
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11515,7 +11570,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11541,10 +11596,10 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11595,7 +11650,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11616,7 +11671,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11627,11 +11682,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11653,13 +11708,13 @@
         <v>132</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11709,7 +11764,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11730,7 +11785,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11741,11 +11796,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11767,16 +11822,16 @@
         <v>132</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11825,7 +11880,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11857,7 +11912,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11880,15 +11935,17 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11937,7 +11994,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11958,7 +12015,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11969,7 +12026,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11992,13 +12049,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>601</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>602</v>
+        <v>204</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>603</v>
+        <v>205</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12049,7 +12106,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>600</v>
+        <v>206</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12061,7 +12118,7 @@
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>79</v>
@@ -12070,7 +12127,7 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>604</v>
+        <v>207</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12081,18 +12138,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>79</v>
@@ -12104,15 +12161,17 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>601</v>
+        <v>132</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>606</v>
+        <v>209</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12161,19 +12220,19 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>605</v>
+        <v>212</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>79</v>
@@ -12182,7 +12241,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>604</v>
+        <v>207</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12193,42 +12252,42 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>609</v>
+        <v>464</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>610</v>
+        <v>465</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>611</v>
+        <v>187</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>612</v>
+        <v>188</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12277,28 +12336,28 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>608</v>
+        <v>466</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>613</v>
+        <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>614</v>
+        <v>130</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12309,7 +12368,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12332,17 +12391,15 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>619</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12391,7 +12448,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12409,21 +12466,21 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>622</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12446,13 +12503,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>567</v>
+        <v>618</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12503,7 +12560,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12521,21 +12578,21 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>626</v>
+        <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>628</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12558,17 +12615,15 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>632</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12617,7 +12672,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12635,10 +12690,10 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>633</v>
+        <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12649,7 +12704,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12672,16 +12727,20 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12729,7 +12788,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12747,13 +12806,13 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>79</v>
+        <v>630</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12761,7 +12820,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12784,15 +12843,17 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>580</v>
+        <v>633</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12841,7 +12902,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12859,21 +12920,21 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>79</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12896,13 +12957,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>584</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>187</v>
+        <v>641</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>188</v>
+        <v>642</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12953,7 +13014,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>189</v>
+        <v>640</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12965,38 +13026,38 @@
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>79</v>
+        <v>643</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>190</v>
+        <v>644</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>79</v>
+        <v>645</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -13008,16 +13069,16 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>132</v>
+        <v>618</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>192</v>
+        <v>647</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>193</v>
+        <v>648</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>170</v>
+        <v>649</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13067,28 +13128,28 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>195</v>
+        <v>646</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>79</v>
+        <v>650</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>190</v>
+        <v>651</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13099,43 +13160,39 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>447</v>
+        <v>653</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13183,19 +13240,19 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>449</v>
+        <v>652</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
@@ -13204,10 +13261,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>130</v>
+        <v>655</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13215,7 +13272,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13223,7 +13280,7 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>87</v>
@@ -13238,17 +13295,15 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>650</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13273,13 +13328,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>651</v>
+        <v>79</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13297,10 +13352,10 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>87</v>
@@ -13315,21 +13370,21 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>654</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13352,13 +13407,13 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>656</v>
+        <v>204</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>657</v>
+        <v>205</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13385,13 +13440,13 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>658</v>
+        <v>79</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>659</v>
+        <v>79</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13409,7 +13464,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>655</v>
+        <v>206</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13421,38 +13476,38 @@
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>660</v>
+        <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>661</v>
+        <v>207</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>662</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13464,15 +13519,17 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>664</v>
+        <v>132</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>665</v>
+        <v>209</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13521,28 +13578,28 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>663</v>
+        <v>212</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>667</v>
+        <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>660</v>
+        <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>668</v>
+        <v>207</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
@@ -13553,11 +13610,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>670</v>
+        <v>463</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13570,24 +13627,26 @@
         <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>671</v>
+        <v>132</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>672</v>
+        <v>464</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>673</v>
+        <v>465</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13635,7 +13694,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>669</v>
+        <v>466</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13647,7 +13706,7 @@
         <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>79</v>
@@ -13656,7 +13715,7 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>675</v>
+        <v>130</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
@@ -13667,7 +13726,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13675,10 +13734,10 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>79</v>
@@ -13690,16 +13749,16 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>677</v>
+        <v>503</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13725,13 +13784,13 @@
         <v>79</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>79</v>
+        <v>668</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>79</v>
+        <v>669</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>79</v>
@@ -13749,13 +13808,13 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
@@ -13764,23 +13823,475 @@
         <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
         <v>681</v>
       </c>
-      <c r="AK99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL99" t="s" s="2">
+      <c r="K101" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="AM99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN99" t="s" s="2">
+      <c r="L101" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN99">
+  <autoFilter ref="A1:AN103">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13790,7 +14301,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI102">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -2535,45 +2535,45 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.08984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="89.734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="198.02734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="128.4140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="128.41796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="684">
   <si>
     <t>Property</t>
   </si>
@@ -287,377 +287,326 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>MedicationRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>MedicationRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>MedicationRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+</t>
+  </si>
+  <si>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>coprescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
+</t>
+  </si>
+  <si>
+    <t>Other parties that have to take part in the prescription.</t>
+  </si>
+  <si>
+    <t>Other practitioners that must take part in this prescripiton</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-validity-period}
+</t>
+  </si>
+  <si>
+    <t>Validity period of the prescription</t>
+  </si>
+  <si>
+    <t>Begin and enddate of the validity of the request</t>
+  </si>
+  <si>
+    <t>executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-execution-period}
+</t>
+  </si>
+  <si>
+    <t>BeExecutionPeriod</t>
+  </si>
+  <si>
+    <t>Begin and enddate of the execution of the request</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+</t>
+  </si>
+  <si>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
+  </si>
+  <si>
+    <t>proposalType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-proposal-type}
+</t>
+  </si>
+  <si>
+    <t>BeProposalType</t>
+  </si>
+  <si>
+    <t>Type of proposal</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-task-reference}
+</t>
+  </si>
+  <si>
+    <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>MedicationRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External ids for this request</t>
+  </si>
+  <si>
+    <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>Message/Header/PrescriberOrderNumber</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
+  </si>
+  <si>
+    <t>UHMEP</t>
+  </si>
+  <si>
+    <t>Reference ID of the UHMEP once available there</t>
+  </si>
+  <si>
+    <t>MedicationRequest.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>MedicationRequest.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>MedicationRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>MedicationRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>MedicationRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MedicationRequest.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>coprescriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
-</t>
-  </si>
-  <si>
-    <t>Other parties that have to take part in the prescription.</t>
-  </si>
-  <si>
-    <t>Other practitioners that must take part in this prescripiton</t>
-  </si>
-  <si>
-    <t>validity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-validity-period}
-</t>
-  </si>
-  <si>
-    <t>Validity period of the prescription</t>
-  </si>
-  <si>
-    <t>Begin and enddate of the validity of the request</t>
-  </si>
-  <si>
-    <t>executed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-execution-period}
-</t>
-  </si>
-  <si>
-    <t>BeExecutionPeriod</t>
-  </si>
-  <si>
-    <t>Begin and enddate of the execution of the request</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
-</t>
-  </si>
-  <si>
-    <t>BeLatestEndDate</t>
-  </si>
-  <si>
-    <t>Request must be performed before</t>
-  </si>
-  <si>
-    <t>latestDraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
-</t>
-  </si>
-  <si>
-    <t>BeLatestDraftDate</t>
-  </si>
-  <si>
-    <t>Request must leave draft status before</t>
-  </si>
-  <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-reference}
-</t>
-  </si>
-  <si>
-    <t>Takes the place of performer and performerType</t>
-  </si>
-  <si>
-    <t>Takes the place of the performer field in ServiceRequest</t>
-  </si>
-  <si>
-    <t>performertasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
-</t>
-  </si>
-  <si>
-    <t>BePerformerTaskReference</t>
-  </si>
-  <si>
-    <t>List of references to the tasks performed by each performer</t>
-  </si>
-  <si>
-    <t>proposalType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-proposal-type}
-</t>
-  </si>
-  <si>
-    <t>BeProposalType</t>
-  </si>
-  <si>
-    <t>Type of proposal</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-task-reference}
-</t>
-  </si>
-  <si>
-    <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>pss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
-</t>
-  </si>
-  <si>
-    <t>BePSSInfo</t>
-  </si>
-  <si>
-    <t>Prescription Search Support Info</t>
-  </si>
-  <si>
-    <t>MedicationRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External ids for this request</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>Message/Header/PrescriberOrderNumber</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
-  </si>
-  <si>
-    <t>UHMEP</t>
-  </si>
-  <si>
-    <t>Reference ID of the UHMEP once available there</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2525,7 +2474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN103"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2535,7 +2484,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.09375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3617,7 +3566,7 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>88</v>
@@ -3635,7 +3584,7 @@
         <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3695,7 +3644,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>138</v>
@@ -3707,7 +3656,7 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3721,7 +3670,7 @@
         <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>79</v>
@@ -3731,7 +3680,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -3743,13 +3692,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3809,7 +3758,7 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>138</v>
@@ -3835,14 +3784,14 @@
         <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>87</v>
@@ -3857,13 +3806,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3923,7 +3872,7 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>138</v>
@@ -3949,7 +3898,7 @@
         <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>79</v>
@@ -3971,13 +3920,13 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -4037,7 +3986,7 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>138</v>
@@ -4063,14 +4012,14 @@
         <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>87</v>
@@ -4085,13 +4034,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4151,7 +4100,7 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>138</v>
@@ -4177,7 +4126,7 @@
         <v>131</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -4199,13 +4148,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4265,7 +4214,7 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>138</v>
@@ -4291,7 +4240,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4301,7 +4250,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -4313,13 +4262,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4379,7 +4328,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -4400,15 +4349,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4418,25 +4365,29 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4484,7 +4435,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4493,7 +4444,7 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>138</v>
@@ -4505,7 +4456,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4514,13 +4465,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4529,7 +4478,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -4541,15 +4490,17 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4586,19 +4537,17 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4607,33 +4556,33 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4646,7 +4595,7 @@
         <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4655,15 +4604,17 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4712,7 +4663,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4721,34 +4672,32 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4760,7 +4709,7 @@
         <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4769,13 +4718,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4826,19 +4775,19 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4847,7 +4796,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4858,11 +4807,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4875,7 +4824,7 @@
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
@@ -4884,17 +4833,15 @@
         <v>132</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4930,19 +4877,19 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4963,7 +4910,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4974,7 +4921,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4985,30 +4932,32 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -5032,35 +4981,37 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -5069,28 +5020,26 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>200</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>79</v>
       </c>
@@ -5108,21 +5057,23 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -5146,13 +5097,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -5170,13 +5121,13 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -5185,24 +5136,24 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5210,7 +5161,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
@@ -5222,31 +5173,35 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>79</v>
@@ -5282,7 +5237,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5294,7 +5249,7 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
@@ -5303,29 +5258,29 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -5334,19 +5289,19 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5360,7 +5315,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -5384,31 +5339,31 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>79</v>
@@ -5417,18 +5372,18 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5445,26 +5400,22 @@
         <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5488,13 +5439,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5512,7 +5463,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5533,18 +5484,18 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5567,20 +5518,18 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5604,13 +5553,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5628,7 +5577,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5649,18 +5598,18 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5674,41 +5623,39 @@
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5720,13 +5667,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5744,10 +5691,10 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5759,24 +5706,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5784,31 +5731,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5822,7 +5769,7 @@
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -5834,13 +5781,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5858,7 +5805,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5873,24 +5820,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5898,30 +5845,32 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>253</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5946,13 +5895,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5970,10 +5919,10 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -5985,24 +5934,24 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6010,31 +5959,31 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6060,13 +6009,11 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -6084,13 +6031,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -6102,21 +6049,21 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6124,16 +6071,16 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
@@ -6142,14 +6089,12 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6174,13 +6119,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6198,10 +6143,10 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -6213,24 +6158,24 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6244,25 +6189,25 @@
         <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6288,13 +6233,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6312,7 +6257,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6327,13 +6272,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6342,9 +6287,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6352,32 +6297,30 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>107</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6402,13 +6345,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6426,10 +6369,10 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -6441,16 +6384,16 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6458,7 +6401,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6478,19 +6421,19 @@
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6516,11 +6459,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6538,13 +6483,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6553,24 +6498,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6578,13 +6523,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6593,15 +6538,17 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>107</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6626,13 +6573,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6650,10 +6597,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6665,24 +6612,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6696,25 +6643,25 @@
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6764,7 +6711,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6779,24 +6726,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6807,7 +6754,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6816,16 +6763,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6876,13 +6823,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6891,24 +6838,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6916,13 +6863,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6931,17 +6878,15 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6966,13 +6911,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6990,10 +6935,10 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>87</v>
@@ -7005,24 +6950,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7045,17 +6990,15 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -7104,10 +7047,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -7119,24 +7062,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7147,7 +7090,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -7159,17 +7102,15 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7218,7 +7159,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7233,24 +7174,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7261,27 +7202,29 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>353</v>
+        <v>208</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7306,13 +7249,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7330,13 +7273,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7345,16 +7288,16 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7362,7 +7305,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7382,16 +7325,16 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7442,7 +7385,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7457,24 +7400,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7482,30 +7425,32 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7530,13 +7475,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7554,13 +7499,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7569,24 +7514,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7597,10 +7542,10 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7609,15 +7554,17 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7666,13 +7613,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7681,24 +7628,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7709,10 +7656,10 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7721,17 +7668,15 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>224</v>
+        <v>397</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7756,13 +7701,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7780,13 +7725,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7795,13 +7740,13 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7810,9 +7755,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7823,25 +7768,25 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>389</v>
+        <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7892,13 +7837,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7913,10 +7858,10 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7924,7 +7869,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7944,20 +7889,18 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7982,13 +7925,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -8006,7 +7949,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -8021,24 +7964,24 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8049,30 +7992,30 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>406</v>
+        <v>174</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8120,13 +8063,13 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -8135,16 +8078,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8152,7 +8095,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8163,7 +8106,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -8172,18 +8115,20 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>413</v>
+        <v>208</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8208,13 +8153,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -8232,13 +8177,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -8247,13 +8192,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8264,7 +8209,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8284,16 +8229,16 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8344,7 +8289,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8359,13 +8304,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8374,9 +8319,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8390,22 +8335,22 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8456,7 +8401,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8471,13 +8416,13 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8486,9 +8431,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8499,30 +8444,30 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>191</v>
+        <v>438</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8570,13 +8515,13 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -8585,13 +8530,13 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8602,7 +8547,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8625,17 +8570,15 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>434</v>
+        <v>188</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8660,13 +8603,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8684,7 +8627,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>433</v>
+        <v>190</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8696,7 +8639,7 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
@@ -8705,7 +8648,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>439</v>
+        <v>191</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8716,11 +8659,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8739,15 +8682,17 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>441</v>
+        <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>442</v>
+        <v>193</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8784,19 +8729,19 @@
         <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>440</v>
+        <v>196</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8808,16 +8753,16 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>445</v>
+        <v>191</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8826,13 +8771,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>446</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8842,16 +8787,16 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>447</v>
+        <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>448</v>
@@ -8859,8 +8804,12 @@
       <c r="L56" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="M56" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8908,7 +8857,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8920,16 +8869,16 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>452</v>
+        <v>130</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8940,7 +8889,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8951,7 +8900,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8960,21 +8909,21 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -9022,13 +8971,13 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -9037,24 +8986,24 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9062,31 +9011,33 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>204</v>
+        <v>460</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>205</v>
+        <v>461</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9134,7 +9085,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>206</v>
+        <v>463</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9146,7 +9097,7 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -9155,22 +9106,22 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>207</v>
+        <v>457</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9186,21 +9137,23 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>209</v>
+        <v>466</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>210</v>
+        <v>467</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9224,31 +9177,31 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>212</v>
+        <v>472</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9260,7 +9213,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9269,54 +9222,50 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>207</v>
+        <v>457</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9364,19 +9313,19 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9385,18 +9334,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>130</v>
+        <v>457</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9419,17 +9368,19 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9478,7 +9429,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9499,18 +9450,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9518,13 +9469,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9533,18 +9484,18 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>487</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9568,13 +9519,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9592,7 +9543,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9613,18 +9564,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9635,10 +9586,10 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9647,19 +9598,19 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9684,13 +9635,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9708,13 +9659,13 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -9729,18 +9680,18 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9763,16 +9714,18 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9796,13 +9749,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9820,7 +9773,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9841,18 +9794,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>489</v>
+        <v>514</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9875,19 +9828,19 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>495</v>
+        <v>208</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9912,13 +9865,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9936,7 +9889,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9957,18 +9910,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9979,7 +9932,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9991,17 +9944,15 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -10026,13 +9977,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -10050,13 +10001,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -10071,18 +10022,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>511</v>
+        <v>530</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10096,29 +10047,25 @@
         <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>513</v>
+        <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10142,13 +10089,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>518</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10166,7 +10113,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>519</v>
+        <v>190</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10178,7 +10125,7 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
@@ -10187,29 +10134,29 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>520</v>
+        <v>191</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -10218,21 +10165,21 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>523</v>
+        <v>193</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10256,43 +10203,43 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>528</v>
+        <v>196</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -10301,18 +10248,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>529</v>
+        <v>191</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10335,19 +10282,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10372,13 +10317,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10396,7 +10341,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10417,7 +10362,7 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10439,7 +10384,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -10459,8 +10404,12 @@
       <c r="L70" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="M70" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10508,13 +10457,13 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -10529,18 +10478,18 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10560,19 +10509,23 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>550</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>204</v>
+        <v>551</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10620,7 +10573,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>206</v>
+        <v>555</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10632,7 +10585,7 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
@@ -10641,29 +10594,29 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>207</v>
+        <v>556</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10672,21 +10625,23 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>132</v>
+        <v>559</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>209</v>
+        <v>560</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>210</v>
+        <v>561</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10722,31 +10677,31 @@
         <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>212</v>
+        <v>564</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
@@ -10755,18 +10710,18 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>207</v>
+        <v>565</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10789,17 +10744,19 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>224</v>
+        <v>568</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10824,13 +10781,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10848,7 +10805,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10869,18 +10826,18 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10903,19 +10860,17 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10964,7 +10919,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10985,18 +10940,18 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>564</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11016,23 +10971,19 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11080,7 +11031,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11098,21 +11049,21 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>584</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>573</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11132,23 +11083,19 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>575</v>
+        <v>187</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>576</v>
+        <v>188</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11196,7 +11143,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11208,7 +11155,7 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11217,29 +11164,29 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>581</v>
+        <v>191</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>582</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -11248,23 +11195,21 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>584</v>
+        <v>132</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>585</v>
+        <v>193</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>586</v>
+        <v>194</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>588</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11312,19 +11257,19 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>589</v>
+        <v>196</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11333,7 +11278,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>590</v>
+        <v>191</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11344,40 +11289,42 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>584</v>
+        <v>132</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>592</v>
+        <v>448</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="N78" t="s" s="2">
-        <v>594</v>
+        <v>171</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11426,19 +11373,19 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>595</v>
+        <v>450</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11447,7 +11394,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>590</v>
+        <v>130</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11458,7 +11405,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11481,15 +11428,17 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11538,7 +11487,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11556,10 +11505,10 @@
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11570,7 +11519,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11593,13 +11542,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11650,7 +11599,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11671,7 +11620,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11682,11 +11631,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11708,13 +11657,13 @@
         <v>132</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11764,7 +11713,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11785,7 +11734,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11796,11 +11745,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11822,16 +11771,16 @@
         <v>132</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11880,7 +11829,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11912,7 +11861,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11935,17 +11884,15 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11994,7 +11941,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12015,7 +11962,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -12026,7 +11973,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12049,13 +11996,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>89</v>
+        <v>602</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>204</v>
+        <v>603</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>205</v>
+        <v>604</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12106,7 +12053,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>206</v>
+        <v>601</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12118,7 +12065,7 @@
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>79</v>
@@ -12127,7 +12074,7 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>207</v>
+        <v>605</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12138,18 +12085,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>79</v>
@@ -12161,17 +12108,15 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>132</v>
+        <v>602</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12220,19 +12165,19 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>212</v>
+        <v>606</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>79</v>
@@ -12241,7 +12186,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>207</v>
+        <v>605</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12252,42 +12197,42 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>464</v>
+        <v>610</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>465</v>
+        <v>611</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>187</v>
+        <v>612</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>188</v>
+        <v>613</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12336,28 +12281,28 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>466</v>
+        <v>609</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>79</v>
+        <v>614</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>130</v>
+        <v>615</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12368,7 +12313,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12391,15 +12336,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>584</v>
+        <v>617</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>619</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>620</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12448,7 +12395,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12466,21 +12413,21 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>623</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12503,13 +12450,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12560,7 +12507,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12578,21 +12525,21 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>79</v>
+        <v>627</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>79</v>
+        <v>629</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12615,15 +12562,17 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>633</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12672,7 +12621,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12690,10 +12639,10 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>79</v>
+        <v>634</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12704,7 +12653,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12727,20 +12676,16 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12788,7 +12733,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12806,13 +12751,13 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>630</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12820,7 +12765,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12843,17 +12788,15 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>633</v>
+        <v>581</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>636</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12902,7 +12845,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12920,21 +12863,21 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>639</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12957,13 +12900,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>584</v>
+        <v>187</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>641</v>
+        <v>188</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>642</v>
+        <v>189</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -13014,7 +12957,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>640</v>
+        <v>190</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13026,22 +12969,22 @@
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>644</v>
+        <v>191</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>645</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" hidden="true">
@@ -13050,14 +12993,14 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -13069,16 +13012,16 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>618</v>
+        <v>132</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>647</v>
+        <v>193</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>648</v>
+        <v>194</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>649</v>
+        <v>170</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13128,28 +13071,28 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>646</v>
+        <v>196</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>650</v>
+        <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>651</v>
+        <v>191</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13160,39 +13103,43 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>260</v>
+        <v>132</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>653</v>
+        <v>448</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13240,19 +13187,19 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>652</v>
+        <v>450</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
@@ -13261,10 +13208,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>655</v>
+        <v>130</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13272,7 +13219,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13280,7 +13227,7 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>87</v>
@@ -13295,15 +13242,17 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>597</v>
+        <v>487</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>650</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>651</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13328,13 +13277,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>79</v>
+        <v>653</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13352,10 +13301,10 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>87</v>
@@ -13370,21 +13319,21 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>79</v>
+        <v>655</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13407,13 +13356,13 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>89</v>
+        <v>208</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>204</v>
+        <v>657</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>205</v>
+        <v>658</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13440,13 +13389,13 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>79</v>
+        <v>659</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>79</v>
+        <v>660</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13464,7 +13413,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>206</v>
+        <v>656</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13476,38 +13425,38 @@
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>79</v>
+        <v>661</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>207</v>
+        <v>662</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>79</v>
+        <v>663</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13519,17 +13468,15 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>132</v>
+        <v>665</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>209</v>
+        <v>666</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13578,28 +13525,28 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>212</v>
+        <v>664</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>79</v>
+        <v>668</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>79</v>
+        <v>661</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>207</v>
+        <v>669</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
@@ -13610,11 +13557,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>463</v>
+        <v>671</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13627,26 +13574,24 @@
         <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>132</v>
+        <v>672</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>464</v>
+        <v>673</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>465</v>
+        <v>674</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13694,7 +13639,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>466</v>
+        <v>670</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13706,7 +13651,7 @@
         <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>79</v>
@@ -13715,7 +13660,7 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>130</v>
+        <v>676</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
@@ -13726,7 +13671,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13734,10 +13679,10 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>79</v>
@@ -13749,16 +13694,16 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>503</v>
+        <v>678</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13784,13 +13729,13 @@
         <v>79</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>668</v>
+        <v>79</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>669</v>
+        <v>79</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>79</v>
@@ -13808,13 +13753,13 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
@@ -13823,475 +13768,23 @@
         <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>79</v>
+        <v>682</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>659</v>
+        <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN103" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN103">
+  <autoFilter ref="A1:AN99">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14301,7 +13794,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI102">
+  <conditionalFormatting sqref="A2:AI98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$103</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="701">
   <si>
     <t>Property</t>
   </si>
@@ -449,14 +449,17 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+    <t>feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
   </si>
   <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -466,7 +469,7 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
 </t>
   </si>
   <si>
@@ -502,17 +505,56 @@
     <t>Begin and enddate of the execution of the request</t>
   </si>
   <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+</t>
+  </si>
+  <si>
+    <t>BeLatestEndDate</t>
+  </si>
+  <si>
+    <t>Request must be performed before</t>
+  </si>
+  <si>
+    <t>latestDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+</t>
+  </si>
+  <si>
+    <t>BeLatestDraftDate</t>
+  </si>
+  <si>
+    <t>Request must leave draft status before</t>
+  </si>
+  <si>
     <t>performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-reference}
 </t>
   </si>
   <si>
     <t>Takes the place of performer and performerType</t>
   </si>
   <si>
-    <t>Intended performers for this request</t>
+    <t>Takes the place of the performer field in ServiceRequest</t>
+  </si>
+  <si>
+    <t>performertasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
+</t>
+  </si>
+  <si>
+    <t>BePerformerTaskReference</t>
+  </si>
+  <si>
+    <t>List of references to the tasks performed by each performer</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -536,6 +578,19 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
+</t>
+  </si>
+  <si>
+    <t>BePSSInfo</t>
+  </si>
+  <si>
+    <t>Prescription Search Support Info</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -2474,7 +2529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN99"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2484,7 +2539,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3566,7 +3621,7 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>88</v>
@@ -3584,7 +3639,7 @@
         <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3644,7 +3699,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>138</v>
@@ -3656,7 +3711,7 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3670,7 +3725,7 @@
         <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>79</v>
@@ -3680,7 +3735,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>88</v>
@@ -3692,13 +3747,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3758,7 +3813,7 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>138</v>
@@ -3784,14 +3839,14 @@
         <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>87</v>
@@ -3806,13 +3861,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3872,7 +3927,7 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>138</v>
@@ -3898,7 +3953,7 @@
         <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>79</v>
@@ -3920,13 +3975,13 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3986,7 +4041,7 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>138</v>
@@ -4012,14 +4067,14 @@
         <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>87</v>
@@ -4034,13 +4089,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4100,7 +4155,7 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>138</v>
@@ -4126,7 +4181,7 @@
         <v>131</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -4148,13 +4203,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4214,7 +4269,7 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>138</v>
@@ -4240,7 +4295,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4250,7 +4305,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -4262,13 +4317,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4328,7 +4383,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -4349,13 +4404,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="C17" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4365,29 +4422,25 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N17" t="s" s="2">
         <v>171</v>
       </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4435,7 +4488,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4444,7 +4497,7 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>138</v>
@@ -4456,7 +4509,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4465,11 +4518,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4478,7 +4533,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -4490,17 +4545,15 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>177</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4537,17 +4590,19 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4556,33 +4611,33 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4595,7 +4650,7 @@
         <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4604,17 +4659,15 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4663,7 +4716,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4672,32 +4725,34 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4709,7 +4764,7 @@
         <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4718,13 +4773,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4775,19 +4830,19 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4796,7 +4851,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4807,11 +4862,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4824,7 +4879,7 @@
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
@@ -4833,15 +4888,17 @@
         <v>132</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4877,19 +4934,19 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4910,7 +4967,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4921,7 +4978,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4932,32 +4989,30 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4981,37 +5036,35 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
@@ -5020,26 +5073,28 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>130</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
       </c>
@@ -5057,23 +5112,21 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -5097,13 +5150,13 @@
         <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -5121,13 +5174,13 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -5136,24 +5189,24 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5161,7 +5214,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>87</v>
@@ -5173,35 +5226,31 @@
         <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>79</v>
@@ -5237,7 +5286,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5249,7 +5298,7 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
@@ -5258,29 +5307,29 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -5289,19 +5338,19 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5315,7 +5364,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -5339,31 +5388,31 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>79</v>
@@ -5372,18 +5421,18 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5400,22 +5449,26 @@
         <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5439,13 +5492,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -5463,7 +5516,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5484,18 +5537,18 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5518,18 +5571,20 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5553,13 +5608,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -5577,7 +5632,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5598,18 +5653,18 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5623,39 +5678,41 @@
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>79</v>
@@ -5667,13 +5724,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5691,10 +5748,10 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5706,24 +5763,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5731,31 +5788,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5769,7 +5826,7 @@
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -5781,13 +5838,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5805,7 +5862,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5820,24 +5877,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5845,32 +5902,30 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5895,13 +5950,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5919,10 +5974,10 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -5934,24 +5989,24 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5959,31 +6014,31 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6009,35 +6064,37 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="X31" s="2"/>
-      <c r="Y31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -6049,21 +6106,21 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6071,16 +6128,16 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
@@ -6089,12 +6146,14 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -6119,13 +6178,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6143,10 +6202,10 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
@@ -6158,24 +6217,24 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6189,25 +6248,25 @@
         <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6233,13 +6292,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6257,7 +6316,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6272,13 +6331,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6287,9 +6346,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6297,30 +6356,32 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>301</v>
+        <v>107</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6345,13 +6406,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6369,10 +6430,10 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
@@ -6384,16 +6445,16 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6401,7 +6462,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6421,19 +6482,19 @@
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>306</v>
+        <v>225</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6459,13 +6520,11 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6483,13 +6542,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6498,24 +6557,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6523,13 +6582,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6538,17 +6597,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6573,13 +6630,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6597,10 +6654,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6612,24 +6669,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6643,25 +6700,25 @@
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6711,7 +6768,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6726,24 +6783,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6754,7 +6811,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6763,16 +6820,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6823,13 +6880,13 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
@@ -6838,24 +6895,24 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6863,13 +6920,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6878,15 +6935,17 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6911,13 +6970,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6935,10 +6994,10 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>87</v>
@@ -6950,24 +7009,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6990,15 +7049,17 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -7047,10 +7108,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -7062,24 +7123,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7090,7 +7151,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>88</v>
@@ -7102,15 +7163,17 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7159,7 +7222,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7174,24 +7237,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7202,29 +7265,27 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7249,13 +7310,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7273,13 +7334,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7288,16 +7349,16 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7305,7 +7366,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7325,16 +7386,16 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7385,7 +7446,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7400,24 +7461,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7425,32 +7486,30 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>208</v>
+        <v>369</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7475,13 +7534,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7499,13 +7558,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7514,24 +7573,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7542,10 +7601,10 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7554,17 +7613,15 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7613,13 +7670,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7628,24 +7685,24 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7656,10 +7713,10 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7668,15 +7725,17 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>397</v>
+        <v>225</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7701,13 +7760,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7725,13 +7784,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7740,13 +7799,13 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7755,9 +7814,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7768,25 +7827,25 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>101</v>
+        <v>390</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7837,13 +7896,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7858,10 +7917,10 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7869,7 +7928,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7889,18 +7948,20 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>406</v>
+        <v>225</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7925,13 +7986,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7949,7 +8010,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7964,24 +8025,24 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7992,30 +8053,30 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>174</v>
+        <v>407</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8063,13 +8124,13 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -8078,16 +8139,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8095,7 +8156,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8106,7 +8167,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -8115,20 +8176,18 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>208</v>
+        <v>414</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8153,13 +8212,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -8177,13 +8236,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -8192,13 +8251,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8209,7 +8268,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8229,16 +8288,16 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>425</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8289,7 +8348,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8304,13 +8363,13 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8319,9 +8378,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8335,22 +8394,22 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8401,7 +8460,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8416,13 +8475,13 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8431,9 +8490,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8444,30 +8503,30 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>438</v>
+        <v>191</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8515,13 +8574,13 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -8530,13 +8589,13 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8547,7 +8606,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8570,15 +8629,17 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>188</v>
+        <v>435</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8603,13 +8664,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8627,7 +8688,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>190</v>
+        <v>434</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8639,7 +8700,7 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
@@ -8648,7 +8709,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>191</v>
+        <v>440</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8659,11 +8720,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8682,17 +8743,15 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>132</v>
+        <v>442</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>193</v>
+        <v>443</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8729,19 +8788,19 @@
         <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>196</v>
+        <v>441</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8753,16 +8812,16 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>191</v>
+        <v>446</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8771,13 +8830,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8787,29 +8846,25 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>132</v>
+        <v>448</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8857,7 +8912,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8869,16 +8924,16 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>130</v>
+        <v>453</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8889,7 +8944,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8900,7 +8955,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>79</v>
@@ -8909,21 +8964,21 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8971,13 +9026,13 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -8986,24 +9041,24 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9011,33 +9066,31 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>460</v>
+        <v>205</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>461</v>
+        <v>206</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>462</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9085,7 +9138,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>463</v>
+        <v>207</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9097,7 +9150,7 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -9106,22 +9159,22 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>457</v>
+        <v>208</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9137,23 +9190,21 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>466</v>
+        <v>210</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>467</v>
+        <v>211</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9177,31 +9228,31 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>472</v>
+        <v>213</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9213,7 +9264,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9222,50 +9273,54 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>457</v>
+        <v>208</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K60" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9313,19 +9368,19 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9334,18 +9389,18 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>457</v>
+        <v>130</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9368,19 +9423,17 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9429,7 +9482,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9450,18 +9503,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9469,13 +9522,13 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9484,18 +9537,18 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>487</v>
+        <v>204</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9519,13 +9572,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9543,7 +9596,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9564,18 +9617,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>495</v>
+        <v>481</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9586,10 +9639,10 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9598,19 +9651,19 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9635,13 +9688,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9659,13 +9712,13 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -9680,18 +9733,18 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9714,18 +9767,16 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>509</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9749,13 +9800,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9773,7 +9824,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9794,18 +9845,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>514</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9828,19 +9879,19 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>208</v>
+        <v>496</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9865,13 +9916,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9889,7 +9940,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9910,18 +9961,18 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9932,7 +9983,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9944,15 +9995,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9977,13 +10030,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -10001,13 +10054,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -10022,18 +10075,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10047,25 +10100,29 @@
         <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>188</v>
+        <v>514</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10089,13 +10146,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10113,7 +10170,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>190</v>
+        <v>520</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10125,7 +10182,7 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
@@ -10134,29 +10191,29 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>191</v>
+        <v>521</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -10165,21 +10222,21 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>193</v>
+        <v>524</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10203,43 +10260,43 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>196</v>
+        <v>529</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>79</v>
@@ -10248,18 +10305,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>191</v>
+        <v>530</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10282,15 +10339,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
         <v>536</v>
       </c>
@@ -10317,7 +10376,7 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="X69" t="s" s="2">
         <v>537</v>
@@ -10362,18 +10421,18 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10384,7 +10443,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -10396,20 +10455,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M70" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N70" t="s" s="2">
-        <v>546</v>
-      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10457,13 +10512,13 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -10478,18 +10533,18 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10509,23 +10564,19 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>550</v>
+        <v>204</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>551</v>
+        <v>205</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10573,7 +10624,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>555</v>
+        <v>207</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10585,7 +10636,7 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>79</v>
@@ -10594,29 +10645,29 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>556</v>
+        <v>208</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10625,23 +10676,21 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>559</v>
+        <v>132</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>561</v>
+        <v>211</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10677,31 +10726,31 @@
         <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>564</v>
+        <v>213</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
@@ -10710,18 +10759,18 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>565</v>
+        <v>208</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>566</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10744,19 +10793,17 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>568</v>
+        <v>225</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>571</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10781,13 +10828,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10805,7 +10852,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10826,18 +10873,18 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10860,17 +10907,19 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="N74" t="s" s="2">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10919,7 +10968,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10940,18 +10989,18 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10971,19 +11020,23 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11031,7 +11084,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11049,21 +11102,21 @@
         <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>584</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11083,19 +11136,23 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>187</v>
+        <v>576</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>188</v>
+        <v>577</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11143,7 +11200,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>190</v>
+        <v>581</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11155,7 +11212,7 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11164,29 +11221,29 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>191</v>
+        <v>582</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>79</v>
@@ -11195,21 +11252,23 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>132</v>
+        <v>585</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>193</v>
+        <v>586</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>194</v>
+        <v>587</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11257,19 +11316,19 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>196</v>
+        <v>590</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11278,7 +11337,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>191</v>
+        <v>591</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11289,42 +11348,40 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>132</v>
+        <v>585</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>448</v>
+        <v>593</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>171</v>
+        <v>595</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11373,19 +11430,19 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>450</v>
+        <v>596</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11394,7 +11451,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>130</v>
+        <v>591</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11405,7 +11462,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11428,17 +11485,15 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11487,7 +11542,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11505,10 +11560,10 @@
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11519,7 +11574,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11542,13 +11597,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11599,7 +11654,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11620,7 +11675,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11631,11 +11686,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11657,13 +11712,13 @@
         <v>132</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11713,7 +11768,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11734,7 +11789,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11745,11 +11800,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11771,16 +11826,16 @@
         <v>132</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11829,7 +11884,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11861,7 +11916,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11884,15 +11939,17 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11941,7 +11998,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11962,7 +12019,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11973,7 +12030,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11996,13 +12053,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>602</v>
+        <v>204</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>603</v>
+        <v>205</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>604</v>
+        <v>206</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12053,7 +12110,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>601</v>
+        <v>207</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12065,7 +12122,7 @@
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>79</v>
@@ -12074,7 +12131,7 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>605</v>
+        <v>208</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12085,18 +12142,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>79</v>
@@ -12108,15 +12165,17 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>602</v>
+        <v>132</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>607</v>
+        <v>210</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12165,19 +12224,19 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>606</v>
+        <v>213</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>79</v>
@@ -12186,7 +12245,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>605</v>
+        <v>208</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12197,42 +12256,42 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>610</v>
+        <v>465</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>611</v>
+        <v>466</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>612</v>
+        <v>187</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>613</v>
+        <v>188</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12281,28 +12340,28 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>609</v>
+        <v>467</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>614</v>
+        <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>615</v>
+        <v>130</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12313,7 +12372,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12336,17 +12395,15 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12395,7 +12452,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12413,21 +12470,21 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>621</v>
+        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>623</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12450,13 +12507,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12507,7 +12564,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12525,21 +12582,21 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>627</v>
+        <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>629</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12562,17 +12619,15 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>633</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12621,7 +12676,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12639,10 +12694,10 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>634</v>
+        <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12653,7 +12708,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12676,16 +12731,20 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12733,7 +12792,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12751,13 +12810,13 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>79</v>
+        <v>631</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12765,7 +12824,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12788,15 +12847,17 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>581</v>
+        <v>634</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12845,7 +12906,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12863,21 +12924,21 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>79</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12900,13 +12961,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>187</v>
+        <v>585</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>188</v>
+        <v>642</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>189</v>
+        <v>643</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12957,7 +13018,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>190</v>
+        <v>641</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12969,38 +13030,38 @@
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>79</v>
+        <v>644</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>191</v>
+        <v>645</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>79</v>
+        <v>646</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -13012,16 +13073,16 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>132</v>
+        <v>619</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>193</v>
+        <v>648</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>194</v>
+        <v>649</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>170</v>
+        <v>650</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13071,28 +13132,28 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>196</v>
+        <v>647</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>79</v>
+        <v>651</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>191</v>
+        <v>652</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13103,43 +13164,39 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>448</v>
+        <v>654</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13187,19 +13244,19 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>450</v>
+        <v>653</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
@@ -13208,10 +13265,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>130</v>
+        <v>656</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13219,7 +13276,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13227,7 +13284,7 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>87</v>
@@ -13242,17 +13299,15 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>487</v>
+        <v>598</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13277,13 +13332,13 @@
         <v>79</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>653</v>
+        <v>79</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>79</v>
@@ -13301,10 +13356,10 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>87</v>
@@ -13319,21 +13374,21 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>643</v>
+        <v>660</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>655</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13356,13 +13411,13 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>657</v>
+        <v>205</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>658</v>
+        <v>206</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13389,13 +13444,13 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>659</v>
+        <v>79</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>660</v>
+        <v>79</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13413,7 +13468,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>656</v>
+        <v>207</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13425,38 +13480,38 @@
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>661</v>
+        <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>662</v>
+        <v>208</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>663</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>79</v>
@@ -13468,15 +13523,17 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>665</v>
+        <v>132</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>666</v>
+        <v>210</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13525,28 +13582,28 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>664</v>
+        <v>213</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>668</v>
+        <v>79</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>661</v>
+        <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>669</v>
+        <v>208</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
@@ -13557,11 +13614,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>671</v>
+        <v>464</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13574,24 +13631,26 @@
         <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>672</v>
+        <v>132</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>673</v>
+        <v>465</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>674</v>
+        <v>466</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
       </c>
@@ -13639,7 +13698,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>670</v>
+        <v>467</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13651,7 +13710,7 @@
         <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>79</v>
@@ -13660,7 +13719,7 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>676</v>
+        <v>130</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
@@ -13671,7 +13730,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13679,10 +13738,10 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>79</v>
@@ -13694,16 +13753,16 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>678</v>
+        <v>504</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13729,13 +13788,13 @@
         <v>79</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>79</v>
+        <v>669</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>79</v>
+        <v>670</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>79</v>
@@ -13753,13 +13812,13 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>79</v>
@@ -13768,23 +13827,475 @@
         <v>99</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="AK99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL99" t="s" s="2">
+      <c r="K101" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="AM99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN99" t="s" s="2">
+      <c r="L101" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN99">
+  <autoFilter ref="A1:AN103">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13794,7 +14305,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI102">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="699">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -454,12 +454,6 @@
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -3636,10 +3630,10 @@
         <v>140</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3699,7 +3693,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>138</v>
@@ -3711,7 +3705,7 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3725,7 +3719,7 @@
         <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>79</v>
@@ -3747,13 +3741,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3813,7 +3807,7 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>138</v>
@@ -3839,7 +3833,7 @@
         <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>79</v>
@@ -3861,13 +3855,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3927,7 +3921,7 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>138</v>
@@ -3953,7 +3947,7 @@
         <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>79</v>
@@ -3975,13 +3969,13 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -4041,7 +4035,7 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>138</v>
@@ -4067,7 +4061,7 @@
         <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>79</v>
@@ -4089,13 +4083,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4155,7 +4149,7 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>138</v>
@@ -4181,7 +4175,7 @@
         <v>131</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -4203,13 +4197,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4269,7 +4263,7 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>138</v>
@@ -4295,7 +4289,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4317,13 +4311,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4383,7 +4377,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -4409,7 +4403,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4431,13 +4425,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4497,7 +4491,7 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>138</v>
@@ -4523,7 +4517,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4545,13 +4539,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4611,7 +4605,7 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>138</v>
@@ -4637,7 +4631,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4659,13 +4653,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4725,7 +4719,7 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>138</v>
@@ -4751,7 +4745,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4773,13 +4767,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4839,7 +4833,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>138</v>
@@ -4862,11 +4856,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4888,16 +4882,16 @@
         <v>132</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4946,7 +4940,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4978,7 +4972,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5001,16 +4995,16 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -5048,7 +5042,7 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
@@ -5058,7 +5052,7 @@
         <v>136</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -5073,27 +5067,27 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -5115,16 +5109,16 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -5174,7 +5168,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5189,24 +5183,24 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5229,13 +5223,13 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5286,7 +5280,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5307,7 +5301,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5318,11 +5312,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5344,13 +5338,13 @@
         <v>132</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5391,7 +5385,7 @@
         <v>135</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
@@ -5400,7 +5394,7 @@
         <v>136</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5421,7 +5415,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5432,7 +5426,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5458,16 +5452,16 @@
         <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5492,31 +5486,31 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5537,7 +5531,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5548,7 +5542,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5571,19 +5565,19 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5608,31 +5602,31 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5653,18 +5647,18 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5690,65 +5684,65 @@
         <v>101</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5769,18 +5763,18 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5803,16 +5797,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5826,7 +5820,7 @@
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -5862,7 +5856,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5883,18 +5877,18 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5917,13 +5911,13 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5974,7 +5968,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5995,18 +5989,18 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6029,16 +6023,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6088,7 +6082,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -6109,18 +6103,18 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6146,13 +6140,13 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6178,13 +6172,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -6202,7 +6196,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>87</v>
@@ -6217,16 +6211,16 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6234,7 +6228,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6257,16 +6251,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6292,14 +6286,14 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="X33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6316,7 +6310,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6331,13 +6325,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6348,7 +6342,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6374,13 +6368,13 @@
         <v>107</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6406,13 +6400,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6430,7 +6424,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>87</v>
@@ -6445,16 +6439,16 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6462,7 +6456,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6485,16 +6479,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6520,11 +6514,11 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6542,7 +6536,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6560,13 +6554,13 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6574,7 +6568,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6600,10 +6594,10 @@
         <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6630,13 +6624,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6654,7 +6648,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6669,16 +6663,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6686,7 +6680,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6709,16 +6703,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6768,7 +6762,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6789,7 +6783,7 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6800,7 +6794,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6823,13 +6817,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6880,7 +6874,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6901,7 +6895,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6912,7 +6906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6935,16 +6929,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6970,13 +6964,13 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>79</v>
@@ -6994,7 +6988,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>87</v>
@@ -7009,24 +7003,24 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7049,16 +7043,16 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7108,7 +7102,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>87</v>
@@ -7123,24 +7117,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7163,16 +7157,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7222,7 +7216,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7237,24 +7231,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7277,13 +7271,13 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7334,7 +7328,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7349,16 +7343,16 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7366,7 +7360,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7389,13 +7383,13 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7446,7 +7440,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7461,24 +7455,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7501,13 +7495,13 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7558,7 +7552,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7573,16 +7567,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7590,7 +7584,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7613,13 +7607,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7670,7 +7664,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7685,16 +7679,16 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7702,7 +7696,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7725,16 +7719,16 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7760,13 +7754,13 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>79</v>
@@ -7784,7 +7778,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7799,13 +7793,13 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7816,7 +7810,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7839,13 +7833,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7896,7 +7890,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7917,10 +7911,10 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7928,7 +7922,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7951,16 +7945,16 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7986,13 +7980,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -8010,7 +8004,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -8025,24 +8019,24 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8065,16 +8059,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -8124,7 +8118,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8139,16 +8133,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8156,7 +8150,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8179,13 +8173,13 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8236,7 +8230,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8251,13 +8245,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8268,7 +8262,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8294,10 +8288,10 @@
         <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8348,7 +8342,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8369,7 +8363,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8380,7 +8374,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8403,13 +8397,13 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8460,7 +8454,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8475,13 +8469,13 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8492,7 +8486,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8515,17 +8509,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8574,7 +8568,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8589,13 +8583,13 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8606,7 +8600,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8629,16 +8623,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8664,13 +8658,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8688,7 +8682,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8709,7 +8703,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8720,7 +8714,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8743,13 +8737,13 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8800,7 +8794,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8815,13 +8809,13 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8832,7 +8826,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8855,13 +8849,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8912,7 +8906,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8927,13 +8921,13 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8944,7 +8938,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8967,16 +8961,16 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9026,7 +9020,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -9041,13 +9035,13 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -9058,7 +9052,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9081,13 +9075,13 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9138,7 +9132,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9159,7 +9153,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -9170,11 +9164,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9196,13 +9190,13 @@
         <v>132</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9243,7 +9237,7 @@
         <v>135</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
@@ -9252,7 +9246,7 @@
         <v>136</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9273,7 +9267,7 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9284,11 +9278,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9310,16 +9304,16 @@
         <v>132</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9368,7 +9362,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9400,7 +9394,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9423,17 +9417,17 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9482,7 +9476,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9503,18 +9497,18 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9537,17 +9531,17 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9596,7 +9590,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9617,18 +9611,18 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9651,19 +9645,19 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9688,31 +9682,31 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9733,18 +9727,18 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9767,13 +9761,13 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9824,7 +9818,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9845,18 +9839,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9879,19 +9873,19 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9940,7 +9934,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9961,7 +9955,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9972,7 +9966,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9995,16 +9989,16 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10030,31 +10024,31 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10075,18 +10069,18 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10109,19 +10103,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10146,31 +10140,31 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10191,18 +10185,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10225,17 +10219,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10260,31 +10254,31 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10305,18 +10299,18 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10339,19 +10333,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10376,31 +10370,31 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10421,18 +10415,18 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10455,13 +10449,13 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10512,7 +10506,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10539,12 +10533,12 @@
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10567,13 +10561,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10624,7 +10618,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10645,7 +10639,7 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10656,11 +10650,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10682,13 +10676,13 @@
         <v>132</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10729,7 +10723,7 @@
         <v>135</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>79</v>
@@ -10738,7 +10732,7 @@
         <v>136</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10759,7 +10753,7 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10770,7 +10764,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10793,17 +10787,17 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10828,31 +10822,31 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10879,12 +10873,12 @@
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10907,19 +10901,19 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10968,7 +10962,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10989,18 +10983,18 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11023,19 +11017,19 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11084,7 +11078,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11105,18 +11099,18 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11139,19 +11133,19 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11200,7 +11194,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11221,18 +11215,18 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11255,19 +11249,19 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11316,7 +11310,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11337,7 +11331,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11348,7 +11342,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11371,17 +11365,17 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11430,7 +11424,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11451,7 +11445,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11462,7 +11456,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11485,13 +11479,13 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11542,7 +11536,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11560,10 +11554,10 @@
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11574,7 +11568,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11597,13 +11591,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11654,7 +11648,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11675,7 +11669,7 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11686,11 +11680,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11712,13 +11706,13 @@
         <v>132</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11768,7 +11762,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11789,7 +11783,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11800,11 +11794,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11826,16 +11820,16 @@
         <v>132</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11884,7 +11878,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11916,7 +11910,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11939,16 +11933,16 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11998,7 +11992,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12019,7 +12013,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -12030,7 +12024,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12053,13 +12047,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12110,7 +12104,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12131,7 +12125,7 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12142,11 +12136,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12168,13 +12162,13 @@
         <v>132</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12224,7 +12218,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12245,7 +12239,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12256,11 +12250,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12282,16 +12276,16 @@
         <v>132</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12340,7 +12334,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12372,7 +12366,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12395,13 +12389,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12452,7 +12446,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12473,7 +12467,7 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12484,7 +12478,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12507,13 +12501,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12564,7 +12558,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12585,7 +12579,7 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12596,7 +12590,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12619,13 +12613,13 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12676,7 +12670,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12697,7 +12691,7 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12708,7 +12702,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12731,19 +12725,19 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12792,7 +12786,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12810,10 +12804,10 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12824,7 +12818,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12847,16 +12841,16 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12906,7 +12900,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12924,21 +12918,21 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>640</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12961,13 +12955,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -13018,7 +13012,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13036,21 +13030,21 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>646</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13073,16 +13067,16 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13132,7 +13126,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13150,10 +13144,10 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13164,7 +13158,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13187,13 +13181,13 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13244,7 +13238,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13265,10 +13259,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13276,7 +13270,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13299,13 +13293,13 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13356,7 +13350,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13374,10 +13368,10 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13388,7 +13382,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13411,13 +13405,13 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13468,7 +13462,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13489,7 +13483,7 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
@@ -13500,11 +13494,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13526,13 +13520,13 @@
         <v>132</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13582,7 +13576,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13603,7 +13597,7 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
@@ -13614,11 +13608,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13640,16 +13634,16 @@
         <v>132</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13698,7 +13692,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13730,7 +13724,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13753,16 +13747,16 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13788,13 +13782,13 @@
         <v>79</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>79</v>
@@ -13812,7 +13806,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>87</v>
@@ -13830,21 +13824,21 @@
         <v>79</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13867,13 +13861,13 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13900,13 +13894,13 @@
         <v>79</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>79</v>
@@ -13924,7 +13918,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -13942,21 +13936,21 @@
         <v>79</v>
       </c>
       <c r="AK100" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>680</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13979,13 +13973,13 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -14036,7 +14030,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -14051,13 +14045,13 @@
         <v>99</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>
@@ -14068,11 +14062,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14091,16 +14085,16 @@
         <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -14150,7 +14144,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14171,7 +14165,7 @@
         <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>79</v>
@@ -14182,7 +14176,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14205,16 +14199,16 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14264,7 +14258,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14279,13 +14273,13 @@
         <v>99</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
+++ b/StructureDefinition-be-referralprescription-nursing-gen-medication.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3732" uniqueCount="698">
   <si>
     <t>Property</t>
   </si>
@@ -263,10 +263,6 @@
   </si>
   <si>
     <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -2790,16 +2786,16 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>79</v>
@@ -2810,7 +2806,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2821,28 +2817,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2892,13 +2888,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2924,7 +2920,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2935,25 +2931,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3004,19 +3000,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -3036,7 +3032,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -3047,28 +3043,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -3118,19 +3114,19 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>79</v>
@@ -3150,7 +3146,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -3161,7 +3157,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>
@@ -3173,16 +3169,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -3208,43 +3204,43 @@
         <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -3264,18 +3260,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
@@ -3287,16 +3283,16 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3346,28 +3342,28 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>79</v>
@@ -3378,11 +3374,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3401,16 +3397,16 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3460,7 +3456,7 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -3481,7 +3477,7 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>79</v>
@@ -3492,7 +3488,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3500,7 +3496,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3515,13 +3511,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3560,17 +3556,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3582,7 +3578,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3602,10 +3598,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
@@ -3615,11 +3611,11 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
       </c>
@@ -3627,13 +3623,13 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3684,7 +3680,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3693,10 +3689,10 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3716,10 +3712,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>79</v>
@@ -3729,11 +3725,11 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3741,13 +3737,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3798,7 +3794,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3807,10 +3803,10 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3830,24 +3826,24 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3855,13 +3851,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3912,7 +3908,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3921,10 +3917,10 @@
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3944,10 +3940,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>79</v>
@@ -3957,11 +3953,11 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3969,13 +3965,13 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -4026,7 +4022,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -4035,10 +4031,10 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>79</v>
@@ -4058,10 +4054,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>79</v>
@@ -4071,11 +4067,11 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
@@ -4083,13 +4079,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4140,7 +4136,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -4149,10 +4145,10 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>79</v>
@@ -4172,10 +4168,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -4185,11 +4181,11 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
       </c>
@@ -4197,13 +4193,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4254,7 +4250,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4263,10 +4259,10 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
@@ -4286,10 +4282,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4302,7 +4298,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -4311,13 +4307,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4368,7 +4364,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4377,10 +4373,10 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
@@ -4400,10 +4396,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4416,7 +4412,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -4425,13 +4421,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4482,7 +4478,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4491,10 +4487,10 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4514,10 +4510,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4527,11 +4523,11 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4539,13 +4535,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4596,7 +4592,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4605,10 +4601,10 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4628,10 +4624,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4641,11 +4637,11 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4653,13 +4649,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4710,7 +4706,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4719,10 +4715,10 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4742,10 +4738,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4755,11 +4751,11 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4767,13 +4763,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4824,7 +4820,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4833,10 +4829,10 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4856,11 +4852,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4873,25 +4869,25 @@
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4940,7 +4936,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4952,7 +4948,7 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
@@ -4961,7 +4957,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4972,7 +4968,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4986,7 +4982,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4995,16 +4991,16 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -5042,17 +5038,17 @@
         <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -5064,30 +5060,30 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -5097,7 +5093,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -5109,16 +5105,16 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -5168,7 +5164,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -5180,27 +5176,27 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5211,7 +5207,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -5223,13 +5219,13 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5280,28 +5276,28 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5312,11 +5308,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5335,16 +5331,16 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5382,19 +5378,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB25" t="s" s="2">
+      <c r="AE25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5406,7 +5402,7 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>79</v>
@@ -5415,7 +5411,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5426,7 +5422,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5437,31 +5433,31 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5486,63 +5482,63 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5553,31 +5549,31 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5602,63 +5598,63 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5666,115 +5662,115 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S28" t="s" s="2">
+      <c r="T28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="T28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5782,31 +5778,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5820,75 +5816,75 @@
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="T29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>250</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5899,25 +5895,25 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5968,39 +5964,39 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6011,28 +6007,28 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -6082,39 +6078,39 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6122,31 +6118,31 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="H32" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6172,55 +6168,55 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
+      <c r="AK32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -6228,7 +6224,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6239,11 +6235,11 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6251,16 +6247,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6286,52 +6282,52 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6342,7 +6338,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6350,31 +6346,31 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="H34" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6400,55 +6396,55 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6456,7 +6452,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6464,14 +6460,14 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6479,16 +6475,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6514,11 +6510,11 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6536,7 +6532,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6548,19 +6544,19 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="AM35" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6568,7 +6564,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6579,25 +6575,25 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6624,55 +6620,55 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6680,7 +6676,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6691,28 +6687,28 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6762,19 +6758,19 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>79</v>
@@ -6783,7 +6779,7 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6794,7 +6790,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6805,25 +6801,25 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6874,19 +6870,19 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
@@ -6895,7 +6891,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6906,7 +6902,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6914,31 +6910,31 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6964,63 +6960,63 @@
         <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7028,31 +7024,31 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -7102,39 +7098,39 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7145,11 +7141,11 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7157,16 +7153,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7216,39 +7212,39 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>350</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7271,13 +7267,13 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7328,7 +7324,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7340,19 +7336,19 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="AM42" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7360,7 +7356,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7371,25 +7367,25 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7440,39 +7436,39 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7480,28 +7476,28 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="H44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J44" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7552,31 +7548,31 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7584,7 +7580,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7598,7 +7594,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7607,13 +7603,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7664,31 +7660,31 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7696,7 +7692,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7710,25 +7706,25 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7754,52 +7750,52 @@
         <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7810,7 +7806,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7821,11 +7817,11 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7833,13 +7829,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7890,19 +7886,19 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7911,10 +7907,10 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7922,7 +7918,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7945,16 +7941,16 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7980,14 +7976,14 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
       </c>
@@ -8004,7 +8000,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -8016,27 +8012,27 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8059,16 +8055,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -8118,7 +8114,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8130,19 +8126,19 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="AM49" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8150,7 +8146,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8170,16 +8166,16 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8230,7 +8226,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8242,16 +8238,16 @@
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8262,7 +8258,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8282,16 +8278,16 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8342,7 +8338,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8354,7 +8350,7 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>79</v>
@@ -8363,7 +8359,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8374,7 +8370,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8394,16 +8390,16 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8454,7 +8450,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8466,16 +8462,16 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8486,7 +8482,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8497,29 +8493,29 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8568,28 +8564,28 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8600,7 +8596,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8611,7 +8607,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8623,16 +8619,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8658,52 +8654,52 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8714,7 +8710,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8737,13 +8733,13 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8794,7 +8790,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8806,16 +8802,16 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8826,7 +8822,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8840,7 +8836,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8849,13 +8845,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8906,7 +8902,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8918,16 +8914,16 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8938,7 +8934,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8961,16 +8957,16 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9020,7 +9016,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -9032,16 +9028,16 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -9052,7 +9048,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9063,7 +9059,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -9075,13 +9071,13 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9132,28 +9128,28 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -9164,11 +9160,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9187,16 +9183,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="M59" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9234,19 +9230,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB59" t="s" s="2">
+      <c r="AE59" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9258,7 +9254,7 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9267,7 +9263,7 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9278,11 +9274,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9295,25 +9291,25 @@
         <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="M60" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9362,7 +9358,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9374,7 +9370,7 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9383,7 +9379,7 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9394,7 +9390,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9405,29 +9401,29 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9476,39 +9472,39 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AF61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>473</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9516,32 +9512,32 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9590,39 +9586,39 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>479</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9642,22 +9638,22 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9682,31 +9678,31 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9718,7 +9714,7 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9727,18 +9723,18 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9749,25 +9745,25 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9818,19 +9814,19 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
@@ -9839,18 +9835,18 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9861,31 +9857,31 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J65" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9934,28 +9930,28 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9966,7 +9962,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9977,28 +9973,28 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J66" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10024,63 +10020,63 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Y66" t="s" s="2">
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE66" t="s" s="2">
+      <c r="AF66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AF66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>510</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10091,31 +10087,31 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10140,63 +10136,63 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="Y67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
+      <c r="AF67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>520</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10207,29 +10203,29 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10254,63 +10250,63 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AF68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL68" t="s" s="2">
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>529</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10321,31 +10317,31 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10370,63 +10366,63 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE69" t="s" s="2">
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>539</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10446,16 +10442,16 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10506,7 +10502,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10518,7 +10514,7 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
@@ -10533,12 +10529,12 @@
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10549,7 +10545,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10561,13 +10557,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10618,28 +10614,28 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10650,11 +10646,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10673,16 +10669,16 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="M72" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10720,19 +10716,19 @@
         <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB72" t="s" s="2">
+      <c r="AE72" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10744,7 +10740,7 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>79</v>
@@ -10753,7 +10749,7 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10764,7 +10760,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10775,29 +10771,29 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10822,63 +10818,63 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s" s="2">
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>555</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10889,31 +10885,31 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J74" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10962,39 +10958,39 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>563</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11005,31 +11001,31 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J75" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11078,39 +11074,39 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AF75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL75" t="s" s="2">
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>572</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11121,31 +11117,31 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J76" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11194,39 +11190,39 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="AF76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>581</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11237,31 +11233,31 @@
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J77" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11310,28 +11306,28 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11342,7 +11338,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11353,29 +11349,29 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11424,19 +11420,19 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11445,7 +11441,7 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11456,7 +11452,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11467,7 +11463,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11479,13 +11475,13 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11536,28 +11532,28 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11568,7 +11564,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11579,7 +11575,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11591,13 +11587,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11648,28 +11644,28 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11680,11 +11676,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11703,16 +11699,16 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="M81" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11762,7 +11758,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11774,7 +11770,7 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
@@ -11783,7 +11779,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11794,11 +11790,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11811,25 +11807,25 @@
         <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="M82" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11878,7 +11874,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11890,7 +11886,7 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
@@ -11899,7 +11895,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11910,7 +11906,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11921,7 +11917,7 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
@@ -11933,16 +11929,16 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11992,19 +11988,19 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>79</v>
@@ -12013,7 +12009,7 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -12024,7 +12020,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12035,7 +12031,7 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>79</v>
@@ -12047,13 +12043,13 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12104,28 +12100,28 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -12136,11 +12132,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12159,16 +12155,16 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L85" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="M85" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12218,7 +12214,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12230,7 +12226,7 @@
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>79</v>
@@ -12239,7 +12235,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12250,11 +12246,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12267,25 +12263,25 @@
         <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="M86" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12334,7 +12330,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12346,7 +12342,7 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
@@ -12355,7 +12351,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12366,7 +12362,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12377,7 +12373,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -12389,13 +12385,13 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12446,19 +12442,19 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
@@ -12467,7 +12463,7 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12478,7 +12474,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12489,7 +12485,7 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12501,13 +12497,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12558,19 +12554,19 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
@@ -12579,7 +12575,7 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12590,7 +12586,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12601,7 +12597,7 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12613,13 +12609,13 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12670,19 +12666,19 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
@@ -12691,7 +12687,7 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12702,7 +12698,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12713,7 +12709,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12725,19 +12721,19 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12786,28 +12782,28 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12818,7 +12814,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12829,7 +12825,7 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12841,16 +12837,16 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12900,39 +12896,39 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>638</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12943,7 +12939,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12955,13 +12951,13 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -13012,39 +13008,39 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="AL92" t="s" s="2">
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>644</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13055,7 +13051,7 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>79</v>
@@ -13067,16 +13063,16 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13126,28 +13122,28 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13158,7 +13154,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13169,7 +13165,7 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>79</v>
@@ -13181,13 +13177,13 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13238,19 +13234,19 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>79</v>
@@ -13259,10 +13255,10 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13270,7 +13266,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13281,7 +13277,7 @@
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>79</v>
@@ -13293,13 +13289,13 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13350,28 +13346,28 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13382,7 +13378,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13393,7 +13389,7 @@
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>79</v>
@@ -13405,13 +13401,13 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="L96" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13462,28 +13458,28 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL96" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
@@ -13494,11 +13490,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13517,16 +13513,16 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="M97" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -13576,7 +13572,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13588,7 +13584,7 @@
         <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>79</v>
@@ -13597,7 +13593,7 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
@@ -13608,11 +13604,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13625,25 +13621,25 @@
         <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L98" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="M98" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N98" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13692,7 +13688,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13704,7 +13700,7 @@
         <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>79</v>
@@ -13713,7 +13709,7 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
@@ -13724,7 +13720,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13732,10 +13728,10 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>79</v>
@@ -13747,16 +13743,16 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13782,63 +13778,63 @@
         <v>79</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X99" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="Y99" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="Y99" t="s" s="2">
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AL99" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="Z99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AL99" t="s" s="2">
+      <c r="AM99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>670</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13849,7 +13845,7 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>79</v>
@@ -13861,13 +13857,13 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13894,63 +13890,63 @@
         <v>79</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X100" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="Y100" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="Y100" t="s" s="2">
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK100" t="s" s="2">
+      <c r="AL100" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="AL100" t="s" s="2">
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>678</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13961,7 +13957,7 @@
         <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>79</v>
@@ -13973,13 +13969,13 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="K101" t="s" s="2">
+      <c r="L101" t="s" s="2">
         <v>681</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -14030,28 +14026,28 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AL101" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>
@@ -14062,11 +14058,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14085,16 +14081,16 @@
         <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -14144,7 +14140,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14156,7 +14152,7 @@
         <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>79</v>
@@ -14165,7 +14161,7 @@
         <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>79</v>
@@ -14176,7 +14172,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14199,16 +14195,16 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="L103" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>696</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14258,7 +14254,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14270,16 +14266,16 @@
         <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>79</v>
